--- a/GRÁFICO MACROFLUXO.xlsx
+++ b/GRÁFICO MACROFLUXO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MACROFLUXO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5659C92-6436-448C-BAC0-AC65A332C278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3606417-CAE6-440A-BD9D-643717ABD0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="3" r:id="rId1"/>
@@ -373,15 +373,6 @@
     <t>JARDIM DOS EUCALIPTOS</t>
   </si>
   <si>
-    <t>PETRIBÚ 02</t>
-  </si>
-  <si>
-    <t>PETRIBÚ 03</t>
-  </si>
-  <si>
-    <t>PETRIBÚ 04</t>
-  </si>
-  <si>
     <t>VIT</t>
   </si>
   <si>
@@ -554,6 +545,15 @@
   </si>
   <si>
     <t>JARDIM DAS HOTÊNSIAS</t>
+  </si>
+  <si>
+    <t>JARDIM DOS IPÊS</t>
+  </si>
+  <si>
+    <t>JARDIM DAS AROEIRAS</t>
+  </si>
+  <si>
+    <t>JARDIM DAS CASTANHEIRAS</t>
   </si>
 </sst>
 </file>
@@ -1299,66 +1299,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1386,75 +1326,72 @@
     <xf numFmtId="14" fontId="9" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -1847,57 +1784,57 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="7" width="13.77734375" style="60" customWidth="1"/>
-    <col min="8" max="9" width="17.77734375" style="60" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="7" width="13.81640625" style="60" customWidth="1"/>
+    <col min="8" max="9" width="17.81640625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="11" max="11" width="47.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="E1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="F1" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="G1" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="H1" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="I1" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="J1" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="K1" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1913,12 +1850,12 @@
         <v>NOVO MALHADAPROSPECÇÃO</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1940,12 +1877,12 @@
         <v>NOVO MALHADALEGALIZAÇÃO PARA VENDA</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1961,12 +1898,12 @@
         <v>NOVO MALHADAPULMÃO VENDA</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1988,12 +1925,12 @@
         <v>NOVO MALHADAPL.LIMP</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -2015,12 +1952,12 @@
         <v>NOVO MALHADALEG.LIMP</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -2042,12 +1979,12 @@
         <v>NOVO MALHADAENG. LIMP.</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -2069,12 +2006,12 @@
         <v>NOVO MALHADAEXECUÇÃO LIMP.</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -2096,12 +2033,12 @@
         <v>NOVO MALHADAPL.TER.</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -2123,12 +2060,12 @@
         <v>NOVO MALHADALEG.TER.</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -2150,12 +2087,12 @@
         <v>NOVO MALHADAENG. TER.</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -2177,12 +2114,12 @@
         <v>NOVO MALHADAEXECUÇÃO TER.</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -2204,12 +2141,12 @@
         <v>NOVO MALHADAPL.INFRA</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -2231,12 +2168,12 @@
         <v>NOVO MALHADALEG.INFRA</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -2258,12 +2195,12 @@
         <v>NOVO MALHADAENG. INFRA</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -2285,15 +2222,15 @@
         <v>NOVO MALHADAEXECUÇÃO INFRA</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F17" s="60">
         <v>45950.333333333336</v>
@@ -2312,12 +2249,12 @@
         <v>NOVO MALHADALEG.PAV</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -2339,12 +2276,12 @@
         <v>NOVO MALHADAENG. PAV</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -2366,12 +2303,12 @@
         <v>NOVO MALHADAEXECUÇÃO PAV.</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
@@ -2387,12 +2324,12 @@
         <v>NOVO MALHADAPULMÃO INFRA</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -2414,12 +2351,12 @@
         <v>NOVO MALHADAPL.RADIER</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -2441,12 +2378,12 @@
         <v>NOVO MALHADALEG.RADIER</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -2468,12 +2405,12 @@
         <v>NOVO MALHADARADIER</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
@@ -2495,12 +2432,12 @@
         <v>NOVO MALHADADEMANDA MÍNIMA</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -2518,12 +2455,12 @@
         <v>JARDIM DAS ORQUÍDEASPROSPECÇÃO</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -2541,12 +2478,12 @@
         <v>JARDIM DAS ORQUÍDEASLEGALIZAÇÃO PARA VENDA</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -2564,12 +2501,12 @@
         <v>JARDIM DAS ORQUÍDEASPULMÃO VENDA</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -2587,12 +2524,12 @@
         <v>JARDIM DAS ORQUÍDEASPL.LIMP</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -2610,12 +2547,12 @@
         <v>JARDIM DAS ORQUÍDEASLEG.LIMP</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -2633,12 +2570,12 @@
         <v>JARDIM DAS ORQUÍDEASENG. LIMP.</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2656,12 +2593,12 @@
         <v>JARDIM DAS ORQUÍDEASEXECUÇÃO LIMP.</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -2679,12 +2616,12 @@
         <v>JARDIM DAS ORQUÍDEASPL.TER.</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -2702,12 +2639,12 @@
         <v>JARDIM DAS ORQUÍDEASLEG.TER.</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -2725,12 +2662,12 @@
         <v>JARDIM DAS ORQUÍDEASENG. TER.</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -2748,12 +2685,12 @@
         <v>JARDIM DAS ORQUÍDEASEXECUÇÃO TER.</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -2771,12 +2708,12 @@
         <v>JARDIM DAS ORQUÍDEASPL.INFRA</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -2794,12 +2731,12 @@
         <v>JARDIM DAS ORQUÍDEASLEG.INFRA</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -2817,12 +2754,12 @@
         <v>JARDIM DAS ORQUÍDEASENG. INFRA</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -2840,15 +2777,15 @@
         <v>JARDIM DAS ORQUÍDEASEXECUÇÃO INFRA</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F40" s="60">
         <v>46001.333333333336</v>
@@ -2863,12 +2800,12 @@
         <v>JARDIM DAS ORQUÍDEASLEG.PAV</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -2886,12 +2823,12 @@
         <v>JARDIM DAS ORQUÍDEASENG. PAV</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
         <v>22</v>
@@ -2909,12 +2846,12 @@
         <v>JARDIM DAS ORQUÍDEASEXECUÇÃO PAV.</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
@@ -2926,12 +2863,12 @@
         <v>JARDIM DAS ORQUÍDEASPULMÃO INFRA</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
         <v>24</v>
@@ -2949,12 +2886,12 @@
         <v>JARDIM DAS ORQUÍDEASPL.RADIER</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
         <v>25</v>
@@ -2972,12 +2909,12 @@
         <v>JARDIM DAS ORQUÍDEASLEG.RADIER</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -2995,12 +2932,12 @@
         <v>JARDIM DAS ORQUÍDEASRADIER</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
         <v>27</v>
@@ -3018,12 +2955,12 @@
         <v>JARDIM DAS ORQUÍDEASDEMANDA MÍNIMA</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -3045,12 +2982,12 @@
         <v>RECANTO DAS AMOREIRASPROSPECÇÃO</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -3072,12 +3009,12 @@
         <v>RECANTO DAS AMOREIRASLEGALIZAÇÃO PARA VENDA</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -3099,12 +3036,12 @@
         <v>RECANTO DAS AMOREIRASPULMÃO VENDA</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -3126,12 +3063,12 @@
         <v>RECANTO DAS AMOREIRASPL.LIMP</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -3153,12 +3090,12 @@
         <v>RECANTO DAS AMOREIRASLEG.LIMP</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -3180,12 +3117,12 @@
         <v>RECANTO DAS AMOREIRASENG. LIMP.</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -3207,12 +3144,12 @@
         <v>RECANTO DAS AMOREIRASEXECUÇÃO LIMP.</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
@@ -3234,12 +3171,12 @@
         <v>RECANTO DAS AMOREIRASPL.TER.</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -3261,12 +3198,12 @@
         <v>RECANTO DAS AMOREIRASLEG.TER.</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
         <v>15</v>
@@ -3288,12 +3225,12 @@
         <v>RECANTO DAS AMOREIRASENG. TER.</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
@@ -3315,12 +3252,12 @@
         <v>RECANTO DAS AMOREIRASEXECUÇÃO TER.</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
         <v>17</v>
@@ -3342,12 +3279,12 @@
         <v>RECANTO DAS AMOREIRASPL.INFRA</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
@@ -3369,12 +3306,12 @@
         <v>RECANTO DAS AMOREIRASLEG.INFRA</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
@@ -3396,12 +3333,12 @@
         <v>RECANTO DAS AMOREIRASENG. INFRA</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
         <v>20</v>
@@ -3423,15 +3360,15 @@
         <v>RECANTO DAS AMOREIRASEXECUÇÃO INFRA</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F63" s="60">
         <v>45740.333333333336</v>
@@ -3450,12 +3387,12 @@
         <v>RECANTO DAS AMOREIRASLEG.PAV</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -3477,12 +3414,12 @@
         <v>RECANTO DAS AMOREIRASENG. PAV</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -3504,12 +3441,12 @@
         <v>RECANTO DAS AMOREIRASEXECUÇÃO PAV.</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
         <v>23</v>
@@ -3531,12 +3468,12 @@
         <v>RECANTO DAS AMOREIRASPULMÃO INFRA</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E67" t="s">
         <v>24</v>
@@ -3558,12 +3495,12 @@
         <v>RECANTO DAS AMOREIRASPL.RADIER</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E68" t="s">
         <v>25</v>
@@ -3585,12 +3522,12 @@
         <v>RECANTO DAS AMOREIRASLEG.RADIER</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
@@ -3612,12 +3549,12 @@
         <v>RECANTO DAS AMOREIRASRADIER</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E70" t="s">
         <v>27</v>
@@ -3639,12 +3576,12 @@
         <v>RECANTO DAS AMOREIRASDEMANDA MÍNIMA</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
@@ -3662,12 +3599,12 @@
         <v>RECANTO DAS VIDEIRASPROSPECÇÃO</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
@@ -3685,12 +3622,12 @@
         <v>RECANTO DAS VIDEIRASLEGALIZAÇÃO PARA VENDA</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -3708,12 +3645,12 @@
         <v>RECANTO DAS VIDEIRASPULMÃO VENDA</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -3731,12 +3668,12 @@
         <v>RECANTO DAS VIDEIRASPL.LIMP</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -3754,12 +3691,12 @@
         <v>RECANTO DAS VIDEIRASLEG.LIMP</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -3777,12 +3714,12 @@
         <v>RECANTO DAS VIDEIRASENG. LIMP.</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3800,12 +3737,12 @@
         <v>RECANTO DAS VIDEIRASEXECUÇÃO LIMP.</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
@@ -3823,12 +3760,12 @@
         <v>RECANTO DAS VIDEIRASPL.TER.</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -3846,12 +3783,12 @@
         <v>RECANTO DAS VIDEIRASLEG.TER.</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
@@ -3869,12 +3806,12 @@
         <v>RECANTO DAS VIDEIRASENG. TER.</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E81" t="s">
         <v>16</v>
@@ -3892,12 +3829,12 @@
         <v>RECANTO DAS VIDEIRASEXECUÇÃO TER.</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
         <v>17</v>
@@ -3915,12 +3852,12 @@
         <v>RECANTO DAS VIDEIRASPL.INFRA</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
@@ -3938,12 +3875,12 @@
         <v>RECANTO DAS VIDEIRASLEG.INFRA</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -3961,12 +3898,12 @@
         <v>RECANTO DAS VIDEIRASENG. INFRA</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E85" t="s">
         <v>20</v>
@@ -3984,15 +3921,15 @@
         <v>RECANTO DAS VIDEIRASEXECUÇÃO INFRA</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E86" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F86" s="60">
         <v>45973.333333333336</v>
@@ -4007,12 +3944,12 @@
         <v>RECANTO DAS VIDEIRASLEG.PAV</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
@@ -4030,12 +3967,12 @@
         <v>RECANTO DAS VIDEIRASENG. PAV</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E88" t="s">
         <v>22</v>
@@ -4053,12 +3990,12 @@
         <v>RECANTO DAS VIDEIRASEXECUÇÃO PAV.</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E89" t="s">
         <v>23</v>
@@ -4070,12 +4007,12 @@
         <v>RECANTO DAS VIDEIRASPULMÃO INFRA</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E90" t="s">
         <v>24</v>
@@ -4093,12 +4030,12 @@
         <v>RECANTO DAS VIDEIRASPL.RADIER</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s">
         <v>25</v>
@@ -4116,12 +4053,12 @@
         <v>RECANTO DAS VIDEIRASLEG.RADIER</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
@@ -4139,12 +4076,12 @@
         <v>RECANTO DAS VIDEIRASRADIER</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E93" t="s">
         <v>27</v>
@@ -4162,12 +4099,12 @@
         <v>RECANTO DAS VIDEIRASDEMANDA MÍNIMA</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E94" t="s">
         <v>6</v>
@@ -4179,12 +4116,12 @@
         <v>RECANTO DAS FIGUEIRASPROSPECÇÃO</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>85</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E95" t="s">
         <v>7</v>
@@ -4202,12 +4139,12 @@
         <v>RECANTO DAS FIGUEIRASLEGALIZAÇÃO PARA VENDA</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -4219,12 +4156,12 @@
         <v>RECANTO DAS FIGUEIRASPULMÃO VENDA</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -4242,12 +4179,12 @@
         <v>RECANTO DAS FIGUEIRASPL.LIMP</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>85</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
@@ -4265,12 +4202,12 @@
         <v>RECANTO DAS FIGUEIRASLEG.LIMP</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>85</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -4288,12 +4225,12 @@
         <v>RECANTO DAS FIGUEIRASENG. LIMP.</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>85</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -4311,12 +4248,12 @@
         <v>RECANTO DAS FIGUEIRASEXECUÇÃO LIMP.</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>85</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
@@ -4334,12 +4271,12 @@
         <v>RECANTO DAS FIGUEIRASPL.TER.</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -4357,12 +4294,12 @@
         <v>RECANTO DAS FIGUEIRASLEG.TER.</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>85</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
@@ -4380,12 +4317,12 @@
         <v>RECANTO DAS FIGUEIRASENG. TER.</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -4403,12 +4340,12 @@
         <v>RECANTO DAS FIGUEIRASEXECUÇÃO TER.</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>85</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -4426,12 +4363,12 @@
         <v>RECANTO DAS FIGUEIRASPL.INFRA</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E106" t="s">
         <v>18</v>
@@ -4449,12 +4386,12 @@
         <v>RECANTO DAS FIGUEIRASLEG.INFRA</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E107" t="s">
         <v>19</v>
@@ -4472,12 +4409,12 @@
         <v>RECANTO DAS FIGUEIRASENG. INFRA</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>85</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E108" t="s">
         <v>20</v>
@@ -4495,15 +4432,15 @@
         <v>RECANTO DAS FIGUEIRASEXECUÇÃO INFRA</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F109" s="60">
         <v>46051.333333333336</v>
@@ -4518,12 +4455,12 @@
         <v>RECANTO DAS FIGUEIRASLEG.PAV</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E110" t="s">
         <v>21</v>
@@ -4541,12 +4478,12 @@
         <v>RECANTO DAS FIGUEIRASENG. PAV</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>85</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E111" t="s">
         <v>22</v>
@@ -4564,12 +4501,12 @@
         <v>RECANTO DAS FIGUEIRASEXECUÇÃO PAV.</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>85</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E112" t="s">
         <v>23</v>
@@ -4581,12 +4518,12 @@
         <v>RECANTO DAS FIGUEIRASPULMÃO INFRA</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>85</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E113" t="s">
         <v>24</v>
@@ -4604,12 +4541,12 @@
         <v>RECANTO DAS FIGUEIRASPL.RADIER</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>85</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E114" t="s">
         <v>25</v>
@@ -4627,12 +4564,12 @@
         <v>RECANTO DAS FIGUEIRASLEG.RADIER</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>85</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
@@ -4650,12 +4587,12 @@
         <v>RECANTO DAS FIGUEIRASRADIER</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>85</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E116" t="s">
         <v>27</v>
@@ -4673,12 +4610,12 @@
         <v>RECANTO DAS FIGUEIRASDEMANDA MÍNIMA</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>99</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D117" s="62">
         <v>0.5</v>
@@ -4699,12 +4636,12 @@
         <v>JARDIM DOS CAMPOSPROSPECÇÃO</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>99</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D118" s="62">
         <v>0.5</v>
@@ -4725,12 +4662,12 @@
         <v>JARDIM DOS CAMPOSLEGALIZAÇÃO PARA VENDA</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D119" s="63">
         <v>1</v>
@@ -4745,12 +4682,12 @@
         <v>JARDIM DOS CAMPOSPULMÃO VENDA</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D120" s="62">
         <v>0.5</v>
@@ -4771,12 +4708,12 @@
         <v>JARDIM DOS CAMPOSPL.LIMP</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D121" s="63">
         <v>0</v>
@@ -4797,12 +4734,12 @@
         <v>JARDIM DOS CAMPOSLEG.LIMP</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -4820,12 +4757,12 @@
         <v>JARDIM DOS CAMPOSENG. LIMP.</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E123" t="s">
         <v>12</v>
@@ -4843,12 +4780,12 @@
         <v>JARDIM DOS CAMPOSEXECUÇÃO LIMP.</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E124" t="s">
         <v>13</v>
@@ -4866,12 +4803,12 @@
         <v>JARDIM DOS CAMPOSPL.TER.</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
@@ -4889,12 +4826,12 @@
         <v>JARDIM DOS CAMPOSLEG.TER.</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>99</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E126" t="s">
         <v>15</v>
@@ -4912,12 +4849,12 @@
         <v>JARDIM DOS CAMPOSENG. TER.</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E127" t="s">
         <v>16</v>
@@ -4935,12 +4872,12 @@
         <v>JARDIM DOS CAMPOSEXECUÇÃO TER.</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E128" t="s">
         <v>17</v>
@@ -4958,12 +4895,12 @@
         <v>JARDIM DOS CAMPOSPL.INFRA</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>99</v>
       </c>
       <c r="B129" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E129" t="s">
         <v>18</v>
@@ -4981,12 +4918,12 @@
         <v>JARDIM DOS CAMPOSLEG.INFRA</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>99</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
@@ -5004,12 +4941,12 @@
         <v>JARDIM DOS CAMPOSENG. INFRA</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>99</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E131" t="s">
         <v>20</v>
@@ -5027,18 +4964,18 @@
         <v>JARDIM DOS CAMPOSEXECUÇÃO INFRA</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>99</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D132" s="63">
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H132"/>
       <c r="I132"/>
@@ -5047,12 +4984,12 @@
         <v>JARDIM DOS CAMPOSLEG.PAV</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>99</v>
       </c>
       <c r="B133" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E133" t="s">
         <v>21</v>
@@ -5070,12 +5007,12 @@
         <v>JARDIM DOS CAMPOSENG. PAV</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>99</v>
       </c>
       <c r="B134" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E134" t="s">
         <v>22</v>
@@ -5093,12 +5030,12 @@
         <v>JARDIM DOS CAMPOSEXECUÇÃO PAV.</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>99</v>
       </c>
       <c r="B135" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E135" t="s">
         <v>23</v>
@@ -5110,12 +5047,12 @@
         <v>JARDIM DOS CAMPOSPULMÃO INFRA</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>99</v>
       </c>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E136" t="s">
         <v>24</v>
@@ -5133,12 +5070,12 @@
         <v>JARDIM DOS CAMPOSPL.RADIER</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>99</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E137" t="s">
         <v>25</v>
@@ -5156,12 +5093,12 @@
         <v>JARDIM DOS CAMPOSLEG.RADIER</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>99</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
@@ -5179,12 +5116,12 @@
         <v>JARDIM DOS CAMPOSRADIER</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>99</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E139" t="s">
         <v>27</v>
@@ -5202,12 +5139,12 @@
         <v>JARDIM DOS CAMPOSDEMANDA MÍNIMA</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>101</v>
       </c>
       <c r="B140" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E140" t="s">
         <v>6</v>
@@ -5219,12 +5156,12 @@
         <v>JARDIM DOS ARCOSPROSPECÇÃO</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>101</v>
       </c>
       <c r="B141" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E141" t="s">
         <v>7</v>
@@ -5242,12 +5179,12 @@
         <v>JARDIM DOS ARCOSLEGALIZAÇÃO PARA VENDA</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>101</v>
       </c>
       <c r="B142" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -5265,12 +5202,12 @@
         <v>JARDIM DOS ARCOSPULMÃO VENDA</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>101</v>
       </c>
       <c r="B143" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E143" t="s">
         <v>9</v>
@@ -5288,12 +5225,12 @@
         <v>JARDIM DOS ARCOSPL.LIMP</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>101</v>
       </c>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E144" t="s">
         <v>10</v>
@@ -5311,12 +5248,12 @@
         <v>JARDIM DOS ARCOSLEG.LIMP</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>101</v>
       </c>
       <c r="B145" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -5334,12 +5271,12 @@
         <v>JARDIM DOS ARCOSENG. LIMP.</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>101</v>
       </c>
       <c r="B146" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E146" t="s">
         <v>12</v>
@@ -5351,12 +5288,12 @@
         <v>JARDIM DOS ARCOSEXECUÇÃO LIMP.</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>101</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E147" t="s">
         <v>13</v>
@@ -5374,12 +5311,12 @@
         <v>JARDIM DOS ARCOSPL.TER.</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>101</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -5397,12 +5334,12 @@
         <v>JARDIM DOS ARCOSLEG.TER.</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>101</v>
       </c>
       <c r="B149" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E149" t="s">
         <v>15</v>
@@ -5420,12 +5357,12 @@
         <v>JARDIM DOS ARCOSENG. TER.</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>101</v>
       </c>
       <c r="B150" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E150" t="s">
         <v>16</v>
@@ -5443,12 +5380,12 @@
         <v>JARDIM DOS ARCOSEXECUÇÃO TER.</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>101</v>
       </c>
       <c r="B151" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E151" t="s">
         <v>17</v>
@@ -5466,12 +5403,12 @@
         <v>JARDIM DOS ARCOSPL.INFRA</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>101</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E152" t="s">
         <v>18</v>
@@ -5489,12 +5426,12 @@
         <v>JARDIM DOS ARCOSLEG.INFRA</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>101</v>
       </c>
       <c r="B153" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E153" t="s">
         <v>19</v>
@@ -5512,12 +5449,12 @@
         <v>JARDIM DOS ARCOSENG. INFRA</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>101</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E154" t="s">
         <v>20</v>
@@ -5535,15 +5472,15 @@
         <v>JARDIM DOS ARCOSEXECUÇÃO INFRA</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>101</v>
       </c>
       <c r="B155" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E155" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F155" s="60">
         <v>45432</v>
@@ -5558,12 +5495,12 @@
         <v>JARDIM DOS ARCOSLEG.PAV</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>101</v>
       </c>
       <c r="B156" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E156" t="s">
         <v>21</v>
@@ -5581,12 +5518,12 @@
         <v>JARDIM DOS ARCOSENG. PAV</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>101</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E157" t="s">
         <v>22</v>
@@ -5604,12 +5541,12 @@
         <v>JARDIM DOS ARCOSEXECUÇÃO PAV.</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>101</v>
       </c>
       <c r="B158" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E158" t="s">
         <v>23</v>
@@ -5621,12 +5558,12 @@
         <v>JARDIM DOS ARCOSPULMÃO INFRA</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>101</v>
       </c>
       <c r="B159" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E159" t="s">
         <v>24</v>
@@ -5644,12 +5581,12 @@
         <v>JARDIM DOS ARCOSPL.RADIER</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>101</v>
       </c>
       <c r="B160" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E160" t="s">
         <v>25</v>
@@ -5667,12 +5604,12 @@
         <v>JARDIM DOS ARCOSLEG.RADIER</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>101</v>
       </c>
       <c r="B161" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E161" t="s">
         <v>5</v>
@@ -5690,12 +5627,12 @@
         <v>JARDIM DOS ARCOSRADIER</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>101</v>
       </c>
       <c r="B162" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E162" t="s">
         <v>27</v>
@@ -5713,12 +5650,12 @@
         <v>JARDIM DOS ARCOSDEMANDA MÍNIMA</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>104</v>
       </c>
       <c r="B163" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D163" s="63">
         <v>1</v>
@@ -5739,12 +5676,12 @@
         <v>JARDIM DOS EUCALIPTOSPROSPECÇÃO</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>104</v>
       </c>
       <c r="B164" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E164" t="s">
         <v>7</v>
@@ -5766,12 +5703,12 @@
         <v>JARDIM DOS EUCALIPTOSLEGALIZAÇÃO PARA VENDA</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>104</v>
       </c>
       <c r="B165" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E165" t="s">
         <v>8</v>
@@ -5783,12 +5720,12 @@
         <v>JARDIM DOS EUCALIPTOSPULMÃO VENDA</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>104</v>
       </c>
       <c r="B166" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
@@ -5810,12 +5747,12 @@
         <v>JARDIM DOS EUCALIPTOSPL.LIMP</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>104</v>
       </c>
       <c r="B167" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E167" t="s">
         <v>10</v>
@@ -5837,12 +5774,12 @@
         <v>JARDIM DOS EUCALIPTOSLEG.LIMP</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>104</v>
       </c>
       <c r="B168" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D168" s="63">
         <v>1</v>
@@ -5867,12 +5804,12 @@
         <v>JARDIM DOS EUCALIPTOSENG. LIMP.</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>104</v>
       </c>
       <c r="B169" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E169" t="s">
         <v>12</v>
@@ -5884,12 +5821,12 @@
         <v>JARDIM DOS EUCALIPTOSEXECUÇÃO LIMP.</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>104</v>
       </c>
       <c r="B170" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D170" s="63">
         <v>1</v>
@@ -5914,12 +5851,12 @@
         <v>JARDIM DOS EUCALIPTOSPL.TER.</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>104</v>
       </c>
       <c r="B171" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D171" s="63">
         <v>1</v>
@@ -5944,12 +5881,12 @@
         <v>JARDIM DOS EUCALIPTOSLEG.TER.</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>104</v>
       </c>
       <c r="B172" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D172" s="62">
         <v>0.75</v>
@@ -5974,12 +5911,12 @@
         <v>JARDIM DOS EUCALIPTOSENG. TER.</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>104</v>
       </c>
       <c r="B173" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D173" s="63">
         <v>0</v>
@@ -6004,12 +5941,12 @@
         <v>JARDIM DOS EUCALIPTOSEXECUÇÃO TER.</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>104</v>
       </c>
       <c r="B174" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D174" s="63">
         <v>1</v>
@@ -6034,12 +5971,12 @@
         <v>JARDIM DOS EUCALIPTOSPL.INFRA</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>104</v>
       </c>
       <c r="B175" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D175" s="63">
         <v>1</v>
@@ -6064,12 +6001,12 @@
         <v>JARDIM DOS EUCALIPTOSLEG.INFRA</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>104</v>
       </c>
       <c r="B176" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D176" s="63">
         <v>0</v>
@@ -6094,12 +6031,12 @@
         <v>JARDIM DOS EUCALIPTOSENG. INFRA</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>104</v>
       </c>
       <c r="B177" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D177" s="63">
         <v>0</v>
@@ -6124,18 +6061,18 @@
         <v>JARDIM DOS EUCALIPTOSEXECUÇÃO INFRA</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>104</v>
       </c>
       <c r="B178" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D178" s="63">
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F178" s="60">
         <v>45692.333333333336</v>
@@ -6154,12 +6091,12 @@
         <v>JARDIM DOS EUCALIPTOSLEG.PAV</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>104</v>
       </c>
       <c r="B179" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D179" s="63">
         <v>0</v>
@@ -6184,12 +6121,12 @@
         <v>JARDIM DOS EUCALIPTOSENG. PAV</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>104</v>
       </c>
       <c r="B180" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D180" s="63">
         <v>0</v>
@@ -6214,12 +6151,12 @@
         <v>JARDIM DOS EUCALIPTOSEXECUÇÃO PAV.</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>104</v>
       </c>
       <c r="B181" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E181" t="s">
         <v>23</v>
@@ -6231,12 +6168,12 @@
         <v>JARDIM DOS EUCALIPTOSPULMÃO INFRA</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>104</v>
       </c>
       <c r="B182" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D182" s="63">
         <v>1</v>
@@ -6261,12 +6198,12 @@
         <v>JARDIM DOS EUCALIPTOSPL.RADIER</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>104</v>
       </c>
       <c r="B183" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D183" s="63">
         <v>1</v>
@@ -6291,12 +6228,12 @@
         <v>JARDIM DOS EUCALIPTOSLEG.RADIER</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>104</v>
       </c>
       <c r="B184" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D184" s="63">
         <v>0</v>
@@ -6321,12 +6258,12 @@
         <v>JARDIM DOS EUCALIPTOSRADIER</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>104</v>
       </c>
       <c r="B185" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D185" s="63">
         <v>0</v>
@@ -6351,12 +6288,12 @@
         <v>JARDIM DOS EUCALIPTOSDEMANDA MÍNIMA</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>89</v>
       </c>
       <c r="B186" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E186" t="s">
         <v>6</v>
@@ -6374,12 +6311,12 @@
         <v>JARDIM DA SERRA IPROSPECÇÃO</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>89</v>
       </c>
       <c r="B187" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E187" t="s">
         <v>7</v>
@@ -6397,12 +6334,12 @@
         <v>JARDIM DA SERRA ILEGALIZAÇÃO PARA VENDA</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>89</v>
       </c>
       <c r="B188" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E188" t="s">
         <v>8</v>
@@ -6420,12 +6357,12 @@
         <v>JARDIM DA SERRA IPULMÃO VENDA</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>89</v>
       </c>
       <c r="B189" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E189" t="s">
         <v>9</v>
@@ -6443,12 +6380,12 @@
         <v>JARDIM DA SERRA IPL.LIMP</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>89</v>
       </c>
       <c r="B190" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
@@ -6466,12 +6403,12 @@
         <v>JARDIM DA SERRA ILEG.LIMP</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>89</v>
       </c>
       <c r="B191" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
@@ -6489,12 +6426,12 @@
         <v>JARDIM DA SERRA IENG. LIMP.</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>89</v>
       </c>
       <c r="B192" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E192" t="s">
         <v>12</v>
@@ -6512,12 +6449,12 @@
         <v>JARDIM DA SERRA IEXECUÇÃO LIMP.</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>89</v>
       </c>
       <c r="B193" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E193" t="s">
         <v>13</v>
@@ -6535,12 +6472,12 @@
         <v>JARDIM DA SERRA IPL.TER.</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>89</v>
       </c>
       <c r="B194" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
@@ -6558,12 +6495,12 @@
         <v>JARDIM DA SERRA ILEG.TER.</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>89</v>
       </c>
       <c r="B195" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E195" t="s">
         <v>15</v>
@@ -6581,12 +6518,12 @@
         <v>JARDIM DA SERRA IENG. TER.</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>89</v>
       </c>
       <c r="B196" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E196" t="s">
         <v>16</v>
@@ -6604,12 +6541,12 @@
         <v>JARDIM DA SERRA IEXECUÇÃO TER.</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>89</v>
       </c>
       <c r="B197" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E197" t="s">
         <v>17</v>
@@ -6627,12 +6564,12 @@
         <v>JARDIM DA SERRA IPL.INFRA</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>89</v>
       </c>
       <c r="B198" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E198" t="s">
         <v>18</v>
@@ -6650,12 +6587,12 @@
         <v>JARDIM DA SERRA ILEG.INFRA</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>89</v>
       </c>
       <c r="B199" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E199" t="s">
         <v>19</v>
@@ -6673,12 +6610,12 @@
         <v>JARDIM DA SERRA IENG. INFRA</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>89</v>
       </c>
       <c r="B200" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E200" t="s">
         <v>20</v>
@@ -6696,15 +6633,15 @@
         <v>JARDIM DA SERRA IEXECUÇÃO INFRA</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>89</v>
       </c>
       <c r="B201" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E201" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F201" s="60">
         <v>45517.333333333336</v>
@@ -6719,12 +6656,12 @@
         <v>JARDIM DA SERRA ILEG.PAV</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>89</v>
       </c>
       <c r="B202" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E202" t="s">
         <v>21</v>
@@ -6742,12 +6679,12 @@
         <v>JARDIM DA SERRA IENG. PAV</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>89</v>
       </c>
       <c r="B203" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E203" t="s">
         <v>22</v>
@@ -6765,12 +6702,12 @@
         <v>JARDIM DA SERRA IEXECUÇÃO PAV.</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>89</v>
       </c>
       <c r="B204" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E204" t="s">
         <v>23</v>
@@ -6782,12 +6719,12 @@
         <v>JARDIM DA SERRA IPULMÃO INFRA</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>89</v>
       </c>
       <c r="B205" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E205" t="s">
         <v>24</v>
@@ -6805,12 +6742,12 @@
         <v>JARDIM DA SERRA IPL.RADIER</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>89</v>
       </c>
       <c r="B206" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E206" t="s">
         <v>25</v>
@@ -6828,12 +6765,12 @@
         <v>JARDIM DA SERRA ILEG.RADIER</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>89</v>
       </c>
       <c r="B207" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E207" t="s">
         <v>5</v>
@@ -6851,12 +6788,12 @@
         <v>JARDIM DA SERRA IRADIER</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>89</v>
       </c>
       <c r="B208" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E208" t="s">
         <v>27</v>
@@ -6884,121 +6821,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:DH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <pane xSplit="4" topLeftCell="CN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DF10" sqref="DF10"/>
+      <selection pane="topRight" activeCell="C27" sqref="C27:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" customWidth="1"/>
+    <col min="1" max="1" width="0.6328125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="0.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="0.6328125" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0.44140625" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="0.6640625" customWidth="1"/>
-    <col min="19" max="19" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0.453125" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="0.6328125" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="6.109375" customWidth="1"/>
-    <col min="22" max="22" width="0.5546875" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="6.08984375" customWidth="1"/>
+    <col min="22" max="22" width="0.54296875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" customWidth="1"/>
-    <col min="26" max="26" width="0.6640625" customWidth="1"/>
-    <col min="27" max="27" width="11.5546875" customWidth="1"/>
-    <col min="28" max="28" width="12.109375" customWidth="1"/>
-    <col min="29" max="29" width="5.33203125" customWidth="1"/>
-    <col min="30" max="30" width="0.6640625" customWidth="1"/>
+    <col min="25" max="25" width="6.6328125" customWidth="1"/>
+    <col min="26" max="26" width="0.6328125" customWidth="1"/>
+    <col min="27" max="27" width="11.54296875" customWidth="1"/>
+    <col min="28" max="28" width="12.08984375" customWidth="1"/>
+    <col min="29" max="29" width="5.36328125" customWidth="1"/>
+    <col min="30" max="30" width="0.6328125" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
-    <col min="32" max="32" width="12.5546875" customWidth="1"/>
-    <col min="33" max="33" width="3.77734375" customWidth="1"/>
-    <col min="34" max="34" width="0.88671875" customWidth="1"/>
-    <col min="35" max="35" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.54296875" customWidth="1"/>
+    <col min="33" max="33" width="3.81640625" customWidth="1"/>
+    <col min="34" max="34" width="0.90625" customWidth="1"/>
+    <col min="35" max="35" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5546875" customWidth="1"/>
-    <col min="38" max="38" width="0.6640625" customWidth="1"/>
+    <col min="37" max="37" width="5.54296875" customWidth="1"/>
+    <col min="38" max="38" width="0.6328125" customWidth="1"/>
     <col min="39" max="39" width="12" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" customWidth="1"/>
-    <col min="42" max="42" width="0.44140625" customWidth="1"/>
-    <col min="43" max="43" width="12.21875" customWidth="1"/>
-    <col min="44" max="44" width="12.6640625" customWidth="1"/>
-    <col min="45" max="45" width="5.77734375" customWidth="1"/>
-    <col min="46" max="46" width="6.109375" customWidth="1"/>
-    <col min="47" max="47" width="0.6640625" customWidth="1"/>
+    <col min="40" max="40" width="12.36328125" customWidth="1"/>
+    <col min="42" max="42" width="0.453125" customWidth="1"/>
+    <col min="43" max="43" width="12.1796875" customWidth="1"/>
+    <col min="44" max="44" width="12.6328125" customWidth="1"/>
+    <col min="45" max="45" width="5.81640625" customWidth="1"/>
+    <col min="46" max="46" width="6.08984375" customWidth="1"/>
+    <col min="47" max="47" width="0.6328125" customWidth="1"/>
     <col min="48" max="48" width="12" customWidth="1"/>
-    <col min="49" max="49" width="12.33203125" customWidth="1"/>
-    <col min="50" max="50" width="5.33203125" customWidth="1"/>
-    <col min="51" max="51" width="0.6640625" customWidth="1"/>
-    <col min="52" max="52" width="10.77734375" customWidth="1"/>
-    <col min="53" max="53" width="13.88671875" customWidth="1"/>
-    <col min="54" max="54" width="4.6640625" customWidth="1"/>
-    <col min="55" max="55" width="0.5546875" customWidth="1"/>
-    <col min="56" max="56" width="11.88671875" customWidth="1"/>
-    <col min="57" max="57" width="11.44140625" customWidth="1"/>
-    <col min="58" max="58" width="5.88671875" customWidth="1"/>
-    <col min="59" max="59" width="0.88671875" customWidth="1"/>
-    <col min="60" max="60" width="12.33203125" customWidth="1"/>
-    <col min="61" max="61" width="12.21875" customWidth="1"/>
-    <col min="62" max="62" width="6.21875" customWidth="1"/>
-    <col min="63" max="63" width="0.44140625" customWidth="1"/>
-    <col min="64" max="65" width="12.44140625" customWidth="1"/>
-    <col min="67" max="67" width="0.77734375" customWidth="1"/>
-    <col min="68" max="68" width="12.33203125" customWidth="1"/>
-    <col min="69" max="69" width="12.44140625" customWidth="1"/>
-    <col min="70" max="70" width="5.33203125" customWidth="1"/>
-    <col min="71" max="71" width="0.77734375" customWidth="1"/>
-    <col min="72" max="72" width="11.109375" customWidth="1"/>
+    <col min="49" max="49" width="12.36328125" customWidth="1"/>
+    <col min="50" max="50" width="5.36328125" customWidth="1"/>
+    <col min="51" max="51" width="0.6328125" customWidth="1"/>
+    <col min="52" max="52" width="10.81640625" customWidth="1"/>
+    <col min="53" max="53" width="13.90625" customWidth="1"/>
+    <col min="54" max="54" width="4.6328125" customWidth="1"/>
+    <col min="55" max="55" width="0.54296875" customWidth="1"/>
+    <col min="56" max="56" width="11.90625" customWidth="1"/>
+    <col min="57" max="57" width="11.453125" customWidth="1"/>
+    <col min="58" max="58" width="5.90625" customWidth="1"/>
+    <col min="59" max="59" width="0.90625" customWidth="1"/>
+    <col min="60" max="60" width="12.36328125" customWidth="1"/>
+    <col min="61" max="61" width="12.1796875" customWidth="1"/>
+    <col min="62" max="62" width="6.1796875" customWidth="1"/>
+    <col min="63" max="63" width="0.453125" customWidth="1"/>
+    <col min="64" max="65" width="12.453125" customWidth="1"/>
+    <col min="67" max="67" width="0.81640625" customWidth="1"/>
+    <col min="68" max="68" width="12.36328125" customWidth="1"/>
+    <col min="69" max="69" width="12.453125" customWidth="1"/>
+    <col min="70" max="70" width="5.36328125" customWidth="1"/>
+    <col min="71" max="71" width="0.81640625" customWidth="1"/>
+    <col min="72" max="72" width="11.08984375" customWidth="1"/>
     <col min="73" max="73" width="13" customWidth="1"/>
-    <col min="74" max="74" width="4.77734375" customWidth="1"/>
-    <col min="75" max="75" width="0.5546875" customWidth="1"/>
-    <col min="76" max="76" width="12.109375" customWidth="1"/>
-    <col min="77" max="77" width="13.33203125" customWidth="1"/>
-    <col min="78" max="78" width="5.77734375" customWidth="1"/>
-    <col min="79" max="79" width="0.33203125" customWidth="1"/>
-    <col min="80" max="80" width="10.77734375" customWidth="1"/>
-    <col min="81" max="81" width="12.21875" customWidth="1"/>
-    <col min="82" max="82" width="5.6640625" customWidth="1"/>
-    <col min="83" max="83" width="0.5546875" customWidth="1"/>
-    <col min="84" max="84" width="12.21875" customWidth="1"/>
-    <col min="85" max="85" width="12.5546875" customWidth="1"/>
-    <col min="86" max="86" width="5.109375" customWidth="1"/>
-    <col min="87" max="87" width="0.44140625" customWidth="1"/>
-    <col min="88" max="88" width="11.44140625" customWidth="1"/>
-    <col min="89" max="89" width="12.77734375" customWidth="1"/>
-    <col min="90" max="90" width="5.109375" customWidth="1"/>
-    <col min="91" max="91" width="0.33203125" customWidth="1"/>
-    <col min="92" max="92" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.6640625" customWidth="1"/>
-    <col min="95" max="95" width="13.33203125" customWidth="1"/>
-    <col min="96" max="96" width="4.44140625" customWidth="1"/>
-    <col min="97" max="97" width="0.6640625" style="72" customWidth="1"/>
-    <col min="98" max="98" width="15.44140625" customWidth="1"/>
-    <col min="99" max="99" width="12.33203125" customWidth="1"/>
+    <col min="74" max="74" width="4.81640625" customWidth="1"/>
+    <col min="75" max="75" width="0.54296875" customWidth="1"/>
+    <col min="76" max="76" width="12.08984375" customWidth="1"/>
+    <col min="77" max="77" width="13.36328125" customWidth="1"/>
+    <col min="78" max="78" width="5.81640625" customWidth="1"/>
+    <col min="79" max="79" width="0.36328125" customWidth="1"/>
+    <col min="80" max="80" width="10.81640625" customWidth="1"/>
+    <col min="81" max="81" width="12.1796875" customWidth="1"/>
+    <col min="82" max="82" width="5.6328125" customWidth="1"/>
+    <col min="83" max="83" width="0.54296875" customWidth="1"/>
+    <col min="84" max="84" width="12.1796875" customWidth="1"/>
+    <col min="85" max="85" width="12.54296875" customWidth="1"/>
+    <col min="86" max="86" width="5.08984375" customWidth="1"/>
+    <col min="87" max="87" width="0.453125" customWidth="1"/>
+    <col min="88" max="88" width="11.453125" customWidth="1"/>
+    <col min="89" max="89" width="12.81640625" customWidth="1"/>
+    <col min="90" max="90" width="5.08984375" customWidth="1"/>
+    <col min="91" max="91" width="0.36328125" customWidth="1"/>
+    <col min="92" max="92" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.6328125" customWidth="1"/>
+    <col min="95" max="95" width="13.36328125" customWidth="1"/>
+    <col min="96" max="96" width="4.453125" customWidth="1"/>
+    <col min="97" max="97" width="0.6328125" style="72" customWidth="1"/>
+    <col min="98" max="98" width="15.453125" customWidth="1"/>
+    <col min="99" max="99" width="12.36328125" customWidth="1"/>
     <col min="100" max="100" width="6" customWidth="1"/>
-    <col min="101" max="101" width="0.77734375" style="72" customWidth="1"/>
-    <col min="102" max="102" width="11.5546875" customWidth="1"/>
-    <col min="103" max="103" width="11.109375" customWidth="1"/>
-    <col min="104" max="104" width="6.88671875" customWidth="1"/>
-    <col min="105" max="105" width="0.5546875" style="72" customWidth="1"/>
-    <col min="106" max="106" width="12.77734375" customWidth="1"/>
+    <col min="101" max="101" width="0.81640625" style="72" customWidth="1"/>
+    <col min="102" max="102" width="11.54296875" customWidth="1"/>
+    <col min="103" max="103" width="11.08984375" customWidth="1"/>
+    <col min="104" max="104" width="6.90625" customWidth="1"/>
+    <col min="105" max="105" width="0.54296875" style="72" customWidth="1"/>
+    <col min="106" max="106" width="12.81640625" customWidth="1"/>
     <col min="107" max="107" width="12" customWidth="1"/>
-    <col min="109" max="109" width="0.5546875" style="72" customWidth="1"/>
-    <col min="110" max="110" width="13.33203125" customWidth="1"/>
-    <col min="111" max="111" width="13.44140625" customWidth="1"/>
-    <col min="112" max="112" width="4.5546875" customWidth="1"/>
+    <col min="109" max="109" width="0.54296875" style="72" customWidth="1"/>
+    <col min="110" max="110" width="13.36328125" customWidth="1"/>
+    <col min="111" max="111" width="13.453125" customWidth="1"/>
+    <col min="112" max="112" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:112" ht="1.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:112" ht="1.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="CP1" s="78"/>
       <c r="CQ1" s="78"/>
       <c r="CR1" s="78"/>
@@ -7019,282 +6956,282 @@
       <c r="DG1" s="78"/>
       <c r="DH1" s="78"/>
     </row>
-    <row r="2" spans="2:112" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+    <row r="2" spans="2:112" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="S2" s="94" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="S2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="95" t="s">
+      <c r="AI2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="95"/>
-      <c r="AR2" s="95"/>
-      <c r="AS2" s="95"/>
-      <c r="AT2" s="95"/>
-      <c r="AU2" s="95"/>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="95"/>
-      <c r="AX2" s="95"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="97"/>
+      <c r="AX2" s="97"/>
       <c r="AY2" s="2"/>
-      <c r="AZ2" s="96" t="s">
+      <c r="AZ2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="BA2" s="96"/>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="96"/>
-      <c r="BI2" s="96"/>
-      <c r="BJ2" s="96"/>
-      <c r="BK2" s="96"/>
-      <c r="BL2" s="96"/>
-      <c r="BM2" s="96"/>
-      <c r="BN2" s="96"/>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="89"/>
-      <c r="BQ2" s="89"/>
-      <c r="BR2" s="89"/>
-      <c r="BS2" s="89"/>
-      <c r="BT2" s="89"/>
-      <c r="BU2" s="89"/>
-      <c r="BV2" s="89"/>
-      <c r="BX2" s="82" t="s">
+      <c r="BA2" s="98"/>
+      <c r="BB2" s="98"/>
+      <c r="BC2" s="98"/>
+      <c r="BD2" s="98"/>
+      <c r="BE2" s="98"/>
+      <c r="BF2" s="98"/>
+      <c r="BG2" s="98"/>
+      <c r="BH2" s="98"/>
+      <c r="BI2" s="98"/>
+      <c r="BJ2" s="98"/>
+      <c r="BK2" s="98"/>
+      <c r="BL2" s="98"/>
+      <c r="BM2" s="98"/>
+      <c r="BN2" s="98"/>
+      <c r="BO2" s="107"/>
+      <c r="BP2" s="107"/>
+      <c r="BQ2" s="107"/>
+      <c r="BR2" s="107"/>
+      <c r="BS2" s="107"/>
+      <c r="BT2" s="107"/>
+      <c r="BU2" s="107"/>
+      <c r="BV2" s="107"/>
+      <c r="BX2" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="BY2" s="82"/>
-      <c r="BZ2" s="82"/>
+      <c r="BY2" s="99"/>
+      <c r="BZ2" s="99"/>
       <c r="CA2" s="3"/>
       <c r="CB2" s="4"/>
       <c r="CC2" s="4"/>
       <c r="CD2" s="4"/>
       <c r="CE2" s="4"/>
-      <c r="CF2" s="83" t="s">
+      <c r="CF2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="CG2" s="83"/>
-      <c r="CH2" s="83"/>
-      <c r="CI2" s="83"/>
-      <c r="CJ2" s="83"/>
-      <c r="CK2" s="83"/>
-      <c r="CL2" s="83"/>
-      <c r="CM2" s="83"/>
-      <c r="CN2" s="84"/>
+      <c r="CG2" s="100"/>
+      <c r="CH2" s="100"/>
+      <c r="CI2" s="100"/>
+      <c r="CJ2" s="100"/>
+      <c r="CK2" s="100"/>
+      <c r="CL2" s="100"/>
+      <c r="CM2" s="100"/>
+      <c r="CN2" s="101"/>
       <c r="CO2" s="5">
         <v>45839</v>
       </c>
-      <c r="CP2" s="97" t="s">
-        <v>163</v>
-      </c>
-      <c r="CQ2" s="98"/>
-      <c r="CR2" s="98"/>
-      <c r="CS2" s="98"/>
-      <c r="CT2" s="98"/>
-      <c r="CU2" s="98"/>
-      <c r="CV2" s="98"/>
-      <c r="CW2" s="98"/>
-      <c r="CX2" s="98"/>
-      <c r="CY2" s="98"/>
-      <c r="CZ2" s="98"/>
-      <c r="DA2" s="98"/>
-      <c r="DB2" s="98"/>
-      <c r="DC2" s="98"/>
-      <c r="DD2" s="98"/>
-      <c r="DE2" s="98"/>
-      <c r="DF2" s="98"/>
-      <c r="DG2" s="98"/>
-      <c r="DH2" s="98"/>
-    </row>
-    <row r="3" spans="2:112" x14ac:dyDescent="0.3">
+      <c r="CP2" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ2" s="90"/>
+      <c r="CR2" s="90"/>
+      <c r="CS2" s="90"/>
+      <c r="CT2" s="90"/>
+      <c r="CU2" s="90"/>
+      <c r="CV2" s="90"/>
+      <c r="CW2" s="90"/>
+      <c r="CX2" s="90"/>
+      <c r="CY2" s="90"/>
+      <c r="CZ2" s="90"/>
+      <c r="DA2" s="90"/>
+      <c r="DB2" s="90"/>
+      <c r="DC2" s="90"/>
+      <c r="DD2" s="90"/>
+      <c r="DE2" s="90"/>
+      <c r="DF2" s="90"/>
+      <c r="DG2" s="90"/>
+      <c r="DH2" s="90"/>
+    </row>
+    <row r="3" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="88"/>
-      <c r="S3" s="80" t="s">
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105"/>
+      <c r="S3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="W3" s="80" t="s">
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="W3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="AA3" s="80" t="s">
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="AA3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AE3" s="80" t="s">
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AE3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AI3" s="80" t="s">
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AI3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AM3" s="80" t="s">
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AM3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AQ3" s="80" t="s">
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="106"/>
+      <c r="AQ3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="80"/>
-      <c r="AV3" s="80" t="s">
+      <c r="AR3" s="106"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AV3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="80"/>
-      <c r="AX3" s="80"/>
-      <c r="AZ3" s="80" t="s">
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="106"/>
+      <c r="AZ3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="BA3" s="80"/>
-      <c r="BB3" s="80"/>
-      <c r="BD3" s="80" t="s">
+      <c r="BA3" s="106"/>
+      <c r="BB3" s="106"/>
+      <c r="BD3" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BH3" s="80" t="s">
+      <c r="BE3" s="106"/>
+      <c r="BF3" s="106"/>
+      <c r="BH3" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="BI3" s="80"/>
-      <c r="BJ3" s="80"/>
-      <c r="BL3" s="80" t="s">
+      <c r="BI3" s="106"/>
+      <c r="BJ3" s="106"/>
+      <c r="BL3" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="BM3" s="80"/>
-      <c r="BN3" s="80"/>
-      <c r="BP3" s="80" t="s">
+      <c r="BM3" s="106"/>
+      <c r="BN3" s="106"/>
+      <c r="BP3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="BQ3" s="80"/>
-      <c r="BR3" s="80"/>
-      <c r="BT3" s="80" t="s">
+      <c r="BQ3" s="106"/>
+      <c r="BR3" s="106"/>
+      <c r="BT3" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="BU3" s="80"/>
-      <c r="BV3" s="80"/>
-      <c r="BX3" s="80" t="s">
+      <c r="BU3" s="106"/>
+      <c r="BV3" s="106"/>
+      <c r="BX3" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="BY3" s="80"/>
-      <c r="BZ3" s="80"/>
-      <c r="CB3" s="80" t="s">
+      <c r="BY3" s="106"/>
+      <c r="BZ3" s="106"/>
+      <c r="CB3" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="CC3" s="80"/>
-      <c r="CD3" s="80"/>
-      <c r="CF3" s="80" t="s">
+      <c r="CC3" s="106"/>
+      <c r="CD3" s="106"/>
+      <c r="CF3" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="CG3" s="80"/>
-      <c r="CH3" s="80"/>
-      <c r="CJ3" s="81" t="s">
+      <c r="CG3" s="106"/>
+      <c r="CH3" s="106"/>
+      <c r="CJ3" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="CK3" s="81"/>
-      <c r="CL3" s="81"/>
+      <c r="CK3" s="91"/>
+      <c r="CL3" s="91"/>
       <c r="CN3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="CO3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="CP3" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="CQ3" s="81"/>
-      <c r="CR3" s="81"/>
+      <c r="CP3" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="CQ3" s="91"/>
+      <c r="CR3" s="91"/>
       <c r="CS3" s="75"/>
-      <c r="CT3" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="CU3" s="81"/>
-      <c r="CV3" s="81"/>
+      <c r="CT3" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="CU3" s="91"/>
+      <c r="CV3" s="91"/>
       <c r="CW3" s="75"/>
-      <c r="CX3" s="81" t="s">
+      <c r="CX3" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY3" s="91"/>
+      <c r="CZ3" s="91"/>
+      <c r="DA3" s="75"/>
+      <c r="DB3" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="CY3" s="81"/>
-      <c r="CZ3" s="81"/>
-      <c r="DA3" s="75"/>
-      <c r="DB3" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="DC3" s="81"/>
-      <c r="DD3" s="81"/>
-      <c r="DF3" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="DG3" s="81"/>
-      <c r="DH3" s="81"/>
-    </row>
-    <row r="4" spans="2:112" x14ac:dyDescent="0.3">
+      <c r="DC3" s="91"/>
+      <c r="DD3" s="91"/>
+      <c r="DF3" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="DG3" s="91"/>
+      <c r="DH3" s="91"/>
+    </row>
+    <row r="4" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -7492,7 +7429,7 @@
       </c>
       <c r="DH4" s="10"/>
     </row>
-    <row r="5" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -7690,8 +7627,8 @@
       </c>
       <c r="DH5" s="10"/>
     </row>
-    <row r="6" spans="2:112" ht="1.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:112" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:112" ht="1.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:112" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
@@ -7714,7 +7651,7 @@
         <v>36</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="14"/>
@@ -7881,46 +7818,46 @@
         <v>77</v>
       </c>
       <c r="CP7" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="CQ7" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="CR7" s="15"/>
       <c r="CS7" s="74"/>
       <c r="CT7" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="CU7" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="CV7" s="15"/>
       <c r="CW7" s="74"/>
       <c r="CX7" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="CY7" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="CZ7" s="15"/>
       <c r="DA7" s="74"/>
       <c r="DB7" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="DC7" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="DD7" s="15"/>
       <c r="DE7" s="74"/>
       <c r="DF7" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="DG7" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="DH7" s="15"/>
     </row>
-    <row r="8" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>78</v>
       </c>
@@ -8131,7 +8068,7 @@
       <c r="CO8" s="28">
         <v>46266</v>
       </c>
-      <c r="CP8" s="100">
+      <c r="CP8" s="80">
         <f>EDATE(CT8,-CR8)</f>
         <v>46082</v>
       </c>
@@ -8139,11 +8076,11 @@
         <f>EDATE(CP8,CR8)</f>
         <v>46143</v>
       </c>
-      <c r="CR8" s="101">
+      <c r="CR8" s="81">
         <v>2</v>
       </c>
       <c r="CS8" s="76"/>
-      <c r="CT8" s="100">
+      <c r="CT8" s="80">
         <f>EDATE(CX8,-CV8)</f>
         <v>46143</v>
       </c>
@@ -8151,11 +8088,11 @@
         <f>EDATE(CT8,CV8)</f>
         <v>46204</v>
       </c>
-      <c r="CV8" s="101">
+      <c r="CV8" s="81">
         <v>2</v>
       </c>
       <c r="CW8" s="76"/>
-      <c r="CX8" s="100">
+      <c r="CX8" s="80">
         <f>EDATE(DB8,-CZ8)</f>
         <v>46204</v>
       </c>
@@ -8163,11 +8100,11 @@
         <f>EDATE(CX8,CZ8)</f>
         <v>46266</v>
       </c>
-      <c r="CZ8" s="101">
+      <c r="CZ8" s="81">
         <v>2</v>
       </c>
       <c r="DA8" s="76"/>
-      <c r="DB8" s="100">
+      <c r="DB8" s="80">
         <f>EDATE(DF8,-DD8)</f>
         <v>46266</v>
       </c>
@@ -8175,11 +8112,11 @@
         <f>EDATE(DB8,DD8)</f>
         <v>46327</v>
       </c>
-      <c r="DD8" s="101">
+      <c r="DD8" s="81">
         <v>2</v>
       </c>
       <c r="DE8" s="77"/>
-      <c r="DF8" s="100">
+      <c r="DF8" s="80">
         <f>EDATE(CO8,2)</f>
         <v>46327</v>
       </c>
@@ -8187,16 +8124,16 @@
         <f>EDATE(DF8,DH8)</f>
         <v>46539</v>
       </c>
-      <c r="DH8" s="101">
+      <c r="DH8" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B9" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>82</v>
@@ -8402,7 +8339,7 @@
       <c r="CO9" s="28">
         <v>45839</v>
       </c>
-      <c r="CP9" s="102">
+      <c r="CP9" s="82">
         <f t="shared" ref="CP9:CP30" si="0">EDATE(CT9,-CR9)</f>
         <v>45658</v>
       </c>
@@ -8410,11 +8347,11 @@
         <f t="shared" ref="CQ9:CQ30" si="1">EDATE(CP9,CR9)</f>
         <v>45717</v>
       </c>
-      <c r="CR9" s="103">
+      <c r="CR9" s="83">
         <v>2</v>
       </c>
       <c r="CS9" s="76"/>
-      <c r="CT9" s="102">
+      <c r="CT9" s="82">
         <f t="shared" ref="CT9:CT30" si="2">EDATE(CX9,-CV9)</f>
         <v>45717</v>
       </c>
@@ -8422,11 +8359,11 @@
         <f t="shared" ref="CU9:CU30" si="3">EDATE(CT9,CV9)</f>
         <v>45778</v>
       </c>
-      <c r="CV9" s="103">
+      <c r="CV9" s="83">
         <v>2</v>
       </c>
       <c r="CW9" s="76"/>
-      <c r="CX9" s="102">
+      <c r="CX9" s="82">
         <f t="shared" ref="CX9:CX30" si="4">EDATE(DB9,-CZ9)</f>
         <v>45778</v>
       </c>
@@ -8434,11 +8371,11 @@
         <f t="shared" ref="CY9:CY30" si="5">EDATE(CX9,CZ9)</f>
         <v>45839</v>
       </c>
-      <c r="CZ9" s="103">
+      <c r="CZ9" s="83">
         <v>2</v>
       </c>
       <c r="DA9" s="76"/>
-      <c r="DB9" s="102">
+      <c r="DB9" s="82">
         <f t="shared" ref="DB9:DB30" si="6">EDATE(DF9,-DD9)</f>
         <v>45839</v>
       </c>
@@ -8446,11 +8383,11 @@
         <f t="shared" ref="DC9:DC30" si="7">EDATE(DB9,DD9)</f>
         <v>45901</v>
       </c>
-      <c r="DD9" s="103">
+      <c r="DD9" s="83">
         <v>2</v>
       </c>
       <c r="DE9" s="77"/>
-      <c r="DF9" s="102">
+      <c r="DF9" s="82">
         <f t="shared" ref="DF9:DF30" si="8">EDATE(CO9,2)</f>
         <v>45901</v>
       </c>
@@ -8458,11 +8395,11 @@
         <f t="shared" ref="DG9:DG30" si="9">EDATE(DF9,DH9)</f>
         <v>46113</v>
       </c>
-      <c r="DH9" s="103">
+      <c r="DH9" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B10" s="16" t="s">
         <v>81</v>
       </c>
@@ -8673,7 +8610,7 @@
       <c r="CO10" s="28">
         <v>46054</v>
       </c>
-      <c r="CP10" s="100">
+      <c r="CP10" s="80">
         <f t="shared" si="0"/>
         <v>45870</v>
       </c>
@@ -8681,11 +8618,11 @@
         <f t="shared" si="1"/>
         <v>45931</v>
       </c>
-      <c r="CR10" s="101">
+      <c r="CR10" s="81">
         <v>2</v>
       </c>
       <c r="CS10" s="76"/>
-      <c r="CT10" s="100">
+      <c r="CT10" s="80">
         <f t="shared" si="2"/>
         <v>45931</v>
       </c>
@@ -8693,11 +8630,11 @@
         <f t="shared" si="3"/>
         <v>45992</v>
       </c>
-      <c r="CV10" s="101">
+      <c r="CV10" s="81">
         <v>2</v>
       </c>
       <c r="CW10" s="76"/>
-      <c r="CX10" s="100">
+      <c r="CX10" s="80">
         <f t="shared" si="4"/>
         <v>45992</v>
       </c>
@@ -8705,11 +8642,11 @@
         <f t="shared" si="5"/>
         <v>46054</v>
       </c>
-      <c r="CZ10" s="101">
+      <c r="CZ10" s="81">
         <v>2</v>
       </c>
       <c r="DA10" s="76"/>
-      <c r="DB10" s="100">
+      <c r="DB10" s="80">
         <f t="shared" si="6"/>
         <v>46054</v>
       </c>
@@ -8717,11 +8654,11 @@
         <f t="shared" si="7"/>
         <v>46113</v>
       </c>
-      <c r="DD10" s="101">
+      <c r="DD10" s="81">
         <v>2</v>
       </c>
       <c r="DE10" s="77"/>
-      <c r="DF10" s="100">
+      <c r="DF10" s="80">
         <f t="shared" si="8"/>
         <v>46113</v>
       </c>
@@ -8729,11 +8666,11 @@
         <f t="shared" si="9"/>
         <v>46327</v>
       </c>
-      <c r="DH10" s="101">
+      <c r="DH10" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B11" s="29" t="s">
         <v>81</v>
       </c>
@@ -8944,7 +8881,7 @@
       <c r="CO11" s="28">
         <v>46266</v>
       </c>
-      <c r="CP11" s="102">
+      <c r="CP11" s="82">
         <f t="shared" si="0"/>
         <v>46082</v>
       </c>
@@ -8952,11 +8889,11 @@
         <f t="shared" si="1"/>
         <v>46143</v>
       </c>
-      <c r="CR11" s="103">
+      <c r="CR11" s="83">
         <v>2</v>
       </c>
       <c r="CS11" s="76"/>
-      <c r="CT11" s="102">
+      <c r="CT11" s="82">
         <f t="shared" si="2"/>
         <v>46143</v>
       </c>
@@ -8964,11 +8901,11 @@
         <f t="shared" si="3"/>
         <v>46204</v>
       </c>
-      <c r="CV11" s="103">
+      <c r="CV11" s="83">
         <v>2</v>
       </c>
       <c r="CW11" s="76"/>
-      <c r="CX11" s="102">
+      <c r="CX11" s="82">
         <f t="shared" si="4"/>
         <v>46204</v>
       </c>
@@ -8976,11 +8913,11 @@
         <f t="shared" si="5"/>
         <v>46266</v>
       </c>
-      <c r="CZ11" s="103">
+      <c r="CZ11" s="83">
         <v>2</v>
       </c>
       <c r="DA11" s="76"/>
-      <c r="DB11" s="102">
+      <c r="DB11" s="82">
         <f t="shared" si="6"/>
         <v>46266</v>
       </c>
@@ -8988,11 +8925,11 @@
         <f t="shared" si="7"/>
         <v>46327</v>
       </c>
-      <c r="DD11" s="103">
+      <c r="DD11" s="83">
         <v>2</v>
       </c>
       <c r="DE11" s="77"/>
-      <c r="DF11" s="102">
+      <c r="DF11" s="82">
         <f t="shared" si="8"/>
         <v>46327</v>
       </c>
@@ -9000,11 +8937,11 @@
         <f t="shared" si="9"/>
         <v>46539</v>
       </c>
-      <c r="DH11" s="103">
+      <c r="DH11" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>81</v>
       </c>
@@ -9215,7 +9152,7 @@
       <c r="CO12" s="28">
         <v>46478</v>
       </c>
-      <c r="CP12" s="100">
+      <c r="CP12" s="80">
         <f t="shared" si="0"/>
         <v>46296</v>
       </c>
@@ -9223,11 +9160,11 @@
         <f t="shared" si="1"/>
         <v>46357</v>
       </c>
-      <c r="CR12" s="101">
+      <c r="CR12" s="81">
         <v>2</v>
       </c>
       <c r="CS12" s="76"/>
-      <c r="CT12" s="100">
+      <c r="CT12" s="80">
         <f t="shared" si="2"/>
         <v>46357</v>
       </c>
@@ -9235,11 +9172,11 @@
         <f t="shared" si="3"/>
         <v>46419</v>
       </c>
-      <c r="CV12" s="101">
+      <c r="CV12" s="81">
         <v>2</v>
       </c>
       <c r="CW12" s="76"/>
-      <c r="CX12" s="100">
+      <c r="CX12" s="80">
         <f t="shared" si="4"/>
         <v>46419</v>
       </c>
@@ -9247,11 +9184,11 @@
         <f t="shared" si="5"/>
         <v>46478</v>
       </c>
-      <c r="CZ12" s="101">
+      <c r="CZ12" s="81">
         <v>2</v>
       </c>
       <c r="DA12" s="76"/>
-      <c r="DB12" s="100">
+      <c r="DB12" s="80">
         <f t="shared" si="6"/>
         <v>46478</v>
       </c>
@@ -9259,11 +9196,11 @@
         <f t="shared" si="7"/>
         <v>46539</v>
       </c>
-      <c r="DD12" s="101">
+      <c r="DD12" s="81">
         <v>2</v>
       </c>
       <c r="DE12" s="77"/>
-      <c r="DF12" s="100">
+      <c r="DF12" s="80">
         <f t="shared" si="8"/>
         <v>46539</v>
       </c>
@@ -9271,11 +9208,11 @@
         <f t="shared" si="9"/>
         <v>46753</v>
       </c>
-      <c r="DH12" s="101">
+      <c r="DH12" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B13" s="29" t="s">
         <v>81</v>
       </c>
@@ -9486,7 +9423,7 @@
       <c r="CO13" s="28">
         <v>46692</v>
       </c>
-      <c r="CP13" s="102">
+      <c r="CP13" s="82">
         <f t="shared" si="0"/>
         <v>46508</v>
       </c>
@@ -9494,11 +9431,11 @@
         <f t="shared" si="1"/>
         <v>46569</v>
       </c>
-      <c r="CR13" s="103">
+      <c r="CR13" s="83">
         <v>2</v>
       </c>
       <c r="CS13" s="76"/>
-      <c r="CT13" s="102">
+      <c r="CT13" s="82">
         <f t="shared" si="2"/>
         <v>46569</v>
       </c>
@@ -9506,11 +9443,11 @@
         <f t="shared" si="3"/>
         <v>46631</v>
       </c>
-      <c r="CV13" s="103">
+      <c r="CV13" s="83">
         <v>2</v>
       </c>
       <c r="CW13" s="76"/>
-      <c r="CX13" s="102">
+      <c r="CX13" s="82">
         <f t="shared" si="4"/>
         <v>46631</v>
       </c>
@@ -9518,11 +9455,11 @@
         <f t="shared" si="5"/>
         <v>46692</v>
       </c>
-      <c r="CZ13" s="103">
+      <c r="CZ13" s="83">
         <v>2</v>
       </c>
       <c r="DA13" s="76"/>
-      <c r="DB13" s="102">
+      <c r="DB13" s="82">
         <f t="shared" si="6"/>
         <v>46692</v>
       </c>
@@ -9530,11 +9467,11 @@
         <f t="shared" si="7"/>
         <v>46753</v>
       </c>
-      <c r="DD13" s="103">
+      <c r="DD13" s="83">
         <v>2</v>
       </c>
       <c r="DE13" s="77"/>
-      <c r="DF13" s="102">
+      <c r="DF13" s="82">
         <f t="shared" si="8"/>
         <v>46753</v>
       </c>
@@ -9542,11 +9479,11 @@
         <f t="shared" si="9"/>
         <v>46966</v>
       </c>
-      <c r="DH13" s="103">
+      <c r="DH13" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>81</v>
       </c>
@@ -9757,7 +9694,7 @@
       <c r="CO14" s="28">
         <v>46905</v>
       </c>
-      <c r="CP14" s="100">
+      <c r="CP14" s="80">
         <f t="shared" si="0"/>
         <v>46722</v>
       </c>
@@ -9765,11 +9702,11 @@
         <f t="shared" si="1"/>
         <v>46784</v>
       </c>
-      <c r="CR14" s="101">
+      <c r="CR14" s="81">
         <v>2</v>
       </c>
       <c r="CS14" s="76"/>
-      <c r="CT14" s="100">
+      <c r="CT14" s="80">
         <f t="shared" si="2"/>
         <v>46784</v>
       </c>
@@ -9777,11 +9714,11 @@
         <f t="shared" si="3"/>
         <v>46844</v>
       </c>
-      <c r="CV14" s="101">
+      <c r="CV14" s="81">
         <v>2</v>
       </c>
       <c r="CW14" s="76"/>
-      <c r="CX14" s="100">
+      <c r="CX14" s="80">
         <f t="shared" si="4"/>
         <v>46844</v>
       </c>
@@ -9789,11 +9726,11 @@
         <f t="shared" si="5"/>
         <v>46905</v>
       </c>
-      <c r="CZ14" s="101">
+      <c r="CZ14" s="81">
         <v>2</v>
       </c>
       <c r="DA14" s="76"/>
-      <c r="DB14" s="100">
+      <c r="DB14" s="80">
         <f t="shared" si="6"/>
         <v>46905</v>
       </c>
@@ -9801,11 +9738,11 @@
         <f t="shared" si="7"/>
         <v>46966</v>
       </c>
-      <c r="DD14" s="101">
+      <c r="DD14" s="81">
         <v>2</v>
       </c>
       <c r="DE14" s="77"/>
-      <c r="DF14" s="100">
+      <c r="DF14" s="80">
         <f t="shared" si="8"/>
         <v>46966</v>
       </c>
@@ -9813,11 +9750,11 @@
         <f t="shared" si="9"/>
         <v>47178</v>
       </c>
-      <c r="DH14" s="101">
+      <c r="DH14" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B15" s="29" t="s">
         <v>88</v>
       </c>
@@ -10028,7 +9965,7 @@
       <c r="CO15" s="28">
         <v>45901</v>
       </c>
-      <c r="CP15" s="102">
+      <c r="CP15" s="82">
         <f t="shared" si="0"/>
         <v>45717</v>
       </c>
@@ -10036,11 +9973,11 @@
         <f t="shared" si="1"/>
         <v>45778</v>
       </c>
-      <c r="CR15" s="103">
+      <c r="CR15" s="83">
         <v>2</v>
       </c>
       <c r="CS15" s="76"/>
-      <c r="CT15" s="102">
+      <c r="CT15" s="82">
         <f t="shared" si="2"/>
         <v>45778</v>
       </c>
@@ -10048,11 +9985,11 @@
         <f t="shared" si="3"/>
         <v>45839</v>
       </c>
-      <c r="CV15" s="103">
+      <c r="CV15" s="83">
         <v>2</v>
       </c>
       <c r="CW15" s="76"/>
-      <c r="CX15" s="102">
+      <c r="CX15" s="82">
         <f t="shared" si="4"/>
         <v>45839</v>
       </c>
@@ -10060,11 +9997,11 @@
         <f t="shared" si="5"/>
         <v>45901</v>
       </c>
-      <c r="CZ15" s="103">
+      <c r="CZ15" s="83">
         <v>2</v>
       </c>
       <c r="DA15" s="76"/>
-      <c r="DB15" s="102">
+      <c r="DB15" s="82">
         <f t="shared" si="6"/>
         <v>45901</v>
       </c>
@@ -10072,11 +10009,11 @@
         <f t="shared" si="7"/>
         <v>45962</v>
       </c>
-      <c r="DD15" s="103">
+      <c r="DD15" s="83">
         <v>2</v>
       </c>
       <c r="DE15" s="77"/>
-      <c r="DF15" s="102">
+      <c r="DF15" s="82">
         <f t="shared" si="8"/>
         <v>45962</v>
       </c>
@@ -10084,11 +10021,11 @@
         <f t="shared" si="9"/>
         <v>46174</v>
       </c>
-      <c r="DH15" s="103">
+      <c r="DH15" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>88</v>
       </c>
@@ -10299,7 +10236,7 @@
       <c r="CO16" s="28">
         <v>46874</v>
       </c>
-      <c r="CP16" s="100">
+      <c r="CP16" s="80">
         <f t="shared" si="0"/>
         <v>46692</v>
       </c>
@@ -10307,11 +10244,11 @@
         <f t="shared" si="1"/>
         <v>46753</v>
       </c>
-      <c r="CR16" s="101">
+      <c r="CR16" s="81">
         <v>2</v>
       </c>
       <c r="CS16" s="76"/>
-      <c r="CT16" s="100">
+      <c r="CT16" s="80">
         <f t="shared" si="2"/>
         <v>46753</v>
       </c>
@@ -10319,11 +10256,11 @@
         <f t="shared" si="3"/>
         <v>46813</v>
       </c>
-      <c r="CV16" s="101">
+      <c r="CV16" s="81">
         <v>2</v>
       </c>
       <c r="CW16" s="76"/>
-      <c r="CX16" s="100">
+      <c r="CX16" s="80">
         <f t="shared" si="4"/>
         <v>46813</v>
       </c>
@@ -10331,11 +10268,11 @@
         <f t="shared" si="5"/>
         <v>46874</v>
       </c>
-      <c r="CZ16" s="101">
+      <c r="CZ16" s="81">
         <v>2</v>
       </c>
       <c r="DA16" s="76"/>
-      <c r="DB16" s="100">
+      <c r="DB16" s="80">
         <f t="shared" si="6"/>
         <v>46874</v>
       </c>
@@ -10343,11 +10280,11 @@
         <f t="shared" si="7"/>
         <v>46935</v>
       </c>
-      <c r="DD16" s="101">
+      <c r="DD16" s="81">
         <v>2</v>
       </c>
       <c r="DE16" s="77"/>
-      <c r="DF16" s="100">
+      <c r="DF16" s="80">
         <f t="shared" si="8"/>
         <v>46935</v>
       </c>
@@ -10355,11 +10292,11 @@
         <f t="shared" si="9"/>
         <v>47150</v>
       </c>
-      <c r="DH16" s="101">
+      <c r="DH16" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B17" s="29" t="s">
         <v>88</v>
       </c>
@@ -10570,7 +10507,7 @@
       <c r="CO17" s="28">
         <v>48153</v>
       </c>
-      <c r="CP17" s="102">
+      <c r="CP17" s="82">
         <f t="shared" si="0"/>
         <v>47969</v>
       </c>
@@ -10578,11 +10515,11 @@
         <f t="shared" si="1"/>
         <v>48030</v>
       </c>
-      <c r="CR17" s="103">
+      <c r="CR17" s="83">
         <v>2</v>
       </c>
       <c r="CS17" s="76"/>
-      <c r="CT17" s="102">
+      <c r="CT17" s="82">
         <f t="shared" si="2"/>
         <v>48030</v>
       </c>
@@ -10590,11 +10527,11 @@
         <f t="shared" si="3"/>
         <v>48092</v>
       </c>
-      <c r="CV17" s="103">
+      <c r="CV17" s="83">
         <v>2</v>
       </c>
       <c r="CW17" s="76"/>
-      <c r="CX17" s="102">
+      <c r="CX17" s="82">
         <f t="shared" si="4"/>
         <v>48092</v>
       </c>
@@ -10602,11 +10539,11 @@
         <f t="shared" si="5"/>
         <v>48153</v>
       </c>
-      <c r="CZ17" s="103">
+      <c r="CZ17" s="83">
         <v>2</v>
       </c>
       <c r="DA17" s="76"/>
-      <c r="DB17" s="102">
+      <c r="DB17" s="82">
         <f t="shared" si="6"/>
         <v>48153</v>
       </c>
@@ -10614,11 +10551,11 @@
         <f t="shared" si="7"/>
         <v>48214</v>
       </c>
-      <c r="DD17" s="103">
+      <c r="DD17" s="83">
         <v>2</v>
       </c>
       <c r="DE17" s="77"/>
-      <c r="DF17" s="102">
+      <c r="DF17" s="82">
         <f t="shared" si="8"/>
         <v>48214</v>
       </c>
@@ -10626,11 +10563,11 @@
         <f t="shared" si="9"/>
         <v>48427</v>
       </c>
-      <c r="DH17" s="103">
+      <c r="DH17" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
         <v>92</v>
       </c>
@@ -10841,7 +10778,7 @@
       <c r="CO18" s="28">
         <v>46388</v>
       </c>
-      <c r="CP18" s="100">
+      <c r="CP18" s="80">
         <f t="shared" si="0"/>
         <v>46204</v>
       </c>
@@ -10849,11 +10786,11 @@
         <f t="shared" si="1"/>
         <v>46266</v>
       </c>
-      <c r="CR18" s="101">
+      <c r="CR18" s="81">
         <v>2</v>
       </c>
       <c r="CS18" s="76"/>
-      <c r="CT18" s="100">
+      <c r="CT18" s="80">
         <f t="shared" si="2"/>
         <v>46266</v>
       </c>
@@ -10861,11 +10798,11 @@
         <f t="shared" si="3"/>
         <v>46327</v>
       </c>
-      <c r="CV18" s="101">
+      <c r="CV18" s="81">
         <v>2</v>
       </c>
       <c r="CW18" s="76"/>
-      <c r="CX18" s="100">
+      <c r="CX18" s="80">
         <f t="shared" si="4"/>
         <v>46327</v>
       </c>
@@ -10873,11 +10810,11 @@
         <f t="shared" si="5"/>
         <v>46388</v>
       </c>
-      <c r="CZ18" s="101">
+      <c r="CZ18" s="81">
         <v>2</v>
       </c>
       <c r="DA18" s="76"/>
-      <c r="DB18" s="100">
+      <c r="DB18" s="80">
         <f t="shared" si="6"/>
         <v>46388</v>
       </c>
@@ -10885,11 +10822,11 @@
         <f t="shared" si="7"/>
         <v>46447</v>
       </c>
-      <c r="DD18" s="101">
+      <c r="DD18" s="81">
         <v>2</v>
       </c>
       <c r="DE18" s="77"/>
-      <c r="DF18" s="100">
+      <c r="DF18" s="80">
         <f t="shared" si="8"/>
         <v>46447</v>
       </c>
@@ -10897,16 +10834,16 @@
         <f t="shared" si="9"/>
         <v>46661</v>
       </c>
-      <c r="DH18" s="101">
+      <c r="DH18" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B19" s="29" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>82</v>
@@ -11112,7 +11049,7 @@
       <c r="CO19" s="28">
         <v>45901</v>
       </c>
-      <c r="CP19" s="102">
+      <c r="CP19" s="82">
         <f t="shared" si="0"/>
         <v>45717</v>
       </c>
@@ -11120,11 +11057,11 @@
         <f t="shared" si="1"/>
         <v>45778</v>
       </c>
-      <c r="CR19" s="103">
+      <c r="CR19" s="83">
         <v>2</v>
       </c>
       <c r="CS19" s="76"/>
-      <c r="CT19" s="102">
+      <c r="CT19" s="82">
         <f t="shared" si="2"/>
         <v>45778</v>
       </c>
@@ -11132,11 +11069,11 @@
         <f t="shared" si="3"/>
         <v>45839</v>
       </c>
-      <c r="CV19" s="103">
+      <c r="CV19" s="83">
         <v>2</v>
       </c>
       <c r="CW19" s="76"/>
-      <c r="CX19" s="102">
+      <c r="CX19" s="82">
         <f t="shared" si="4"/>
         <v>45839</v>
       </c>
@@ -11144,11 +11081,11 @@
         <f t="shared" si="5"/>
         <v>45901</v>
       </c>
-      <c r="CZ19" s="103">
+      <c r="CZ19" s="83">
         <v>2</v>
       </c>
       <c r="DA19" s="76"/>
-      <c r="DB19" s="102">
+      <c r="DB19" s="82">
         <f t="shared" si="6"/>
         <v>45901</v>
       </c>
@@ -11156,11 +11093,11 @@
         <f t="shared" si="7"/>
         <v>45962</v>
       </c>
-      <c r="DD19" s="103">
+      <c r="DD19" s="83">
         <v>2</v>
       </c>
       <c r="DE19" s="77"/>
-      <c r="DF19" s="102">
+      <c r="DF19" s="82">
         <f t="shared" si="8"/>
         <v>45962</v>
       </c>
@@ -11168,11 +11105,11 @@
         <f t="shared" si="9"/>
         <v>46174</v>
       </c>
-      <c r="DH19" s="103">
+      <c r="DH19" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
         <v>94</v>
       </c>
@@ -11383,7 +11320,7 @@
       <c r="CO20" s="28">
         <v>46235</v>
       </c>
-      <c r="CP20" s="100">
+      <c r="CP20" s="80">
         <f t="shared" si="0"/>
         <v>46054</v>
       </c>
@@ -11391,11 +11328,11 @@
         <f t="shared" si="1"/>
         <v>46113</v>
       </c>
-      <c r="CR20" s="101">
+      <c r="CR20" s="81">
         <v>2</v>
       </c>
       <c r="CS20" s="76"/>
-      <c r="CT20" s="100">
+      <c r="CT20" s="80">
         <f t="shared" si="2"/>
         <v>46113</v>
       </c>
@@ -11403,11 +11340,11 @@
         <f t="shared" si="3"/>
         <v>46174</v>
       </c>
-      <c r="CV20" s="101">
+      <c r="CV20" s="81">
         <v>2</v>
       </c>
       <c r="CW20" s="76"/>
-      <c r="CX20" s="100">
+      <c r="CX20" s="80">
         <f t="shared" si="4"/>
         <v>46174</v>
       </c>
@@ -11415,11 +11352,11 @@
         <f t="shared" si="5"/>
         <v>46235</v>
       </c>
-      <c r="CZ20" s="101">
+      <c r="CZ20" s="81">
         <v>2</v>
       </c>
       <c r="DA20" s="76"/>
-      <c r="DB20" s="100">
+      <c r="DB20" s="80">
         <f t="shared" si="6"/>
         <v>46235</v>
       </c>
@@ -11427,11 +11364,11 @@
         <f t="shared" si="7"/>
         <v>46296</v>
       </c>
-      <c r="DD20" s="101">
+      <c r="DD20" s="81">
         <v>2</v>
       </c>
       <c r="DE20" s="77"/>
-      <c r="DF20" s="100">
+      <c r="DF20" s="80">
         <f t="shared" si="8"/>
         <v>46296</v>
       </c>
@@ -11439,11 +11376,11 @@
         <f t="shared" si="9"/>
         <v>46508</v>
       </c>
-      <c r="DH20" s="101">
+      <c r="DH20" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B21" s="29" t="s">
         <v>94</v>
       </c>
@@ -11654,7 +11591,7 @@
       <c r="CO21" s="28">
         <v>46661</v>
       </c>
-      <c r="CP21" s="102">
+      <c r="CP21" s="82">
         <f t="shared" si="0"/>
         <v>46478</v>
       </c>
@@ -11662,11 +11599,11 @@
         <f t="shared" si="1"/>
         <v>46539</v>
       </c>
-      <c r="CR21" s="103">
+      <c r="CR21" s="83">
         <v>2</v>
       </c>
       <c r="CS21" s="76"/>
-      <c r="CT21" s="102">
+      <c r="CT21" s="82">
         <f t="shared" si="2"/>
         <v>46539</v>
       </c>
@@ -11674,11 +11611,11 @@
         <f t="shared" si="3"/>
         <v>46600</v>
       </c>
-      <c r="CV21" s="103">
+      <c r="CV21" s="83">
         <v>2</v>
       </c>
       <c r="CW21" s="76"/>
-      <c r="CX21" s="102">
+      <c r="CX21" s="82">
         <f t="shared" si="4"/>
         <v>46600</v>
       </c>
@@ -11686,11 +11623,11 @@
         <f t="shared" si="5"/>
         <v>46661</v>
       </c>
-      <c r="CZ21" s="103">
+      <c r="CZ21" s="83">
         <v>2</v>
       </c>
       <c r="DA21" s="76"/>
-      <c r="DB21" s="102">
+      <c r="DB21" s="82">
         <f t="shared" si="6"/>
         <v>46661</v>
       </c>
@@ -11698,11 +11635,11 @@
         <f t="shared" si="7"/>
         <v>46722</v>
       </c>
-      <c r="DD21" s="103">
+      <c r="DD21" s="83">
         <v>2</v>
       </c>
       <c r="DE21" s="77"/>
-      <c r="DF21" s="102">
+      <c r="DF21" s="82">
         <f t="shared" si="8"/>
         <v>46722</v>
       </c>
@@ -11710,11 +11647,11 @@
         <f t="shared" si="9"/>
         <v>46935</v>
       </c>
-      <c r="DH21" s="103">
+      <c r="DH21" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
         <v>94</v>
       </c>
@@ -11925,7 +11862,7 @@
       <c r="CO22" s="28">
         <v>46874</v>
       </c>
-      <c r="CP22" s="100">
+      <c r="CP22" s="80">
         <f t="shared" si="0"/>
         <v>46692</v>
       </c>
@@ -11933,11 +11870,11 @@
         <f t="shared" si="1"/>
         <v>46753</v>
       </c>
-      <c r="CR22" s="101">
+      <c r="CR22" s="81">
         <v>2</v>
       </c>
       <c r="CS22" s="76"/>
-      <c r="CT22" s="100">
+      <c r="CT22" s="80">
         <f t="shared" si="2"/>
         <v>46753</v>
       </c>
@@ -11945,11 +11882,11 @@
         <f t="shared" si="3"/>
         <v>46813</v>
       </c>
-      <c r="CV22" s="101">
+      <c r="CV22" s="81">
         <v>2</v>
       </c>
       <c r="CW22" s="76"/>
-      <c r="CX22" s="100">
+      <c r="CX22" s="80">
         <f t="shared" si="4"/>
         <v>46813</v>
       </c>
@@ -11957,11 +11894,11 @@
         <f t="shared" si="5"/>
         <v>46874</v>
       </c>
-      <c r="CZ22" s="101">
+      <c r="CZ22" s="81">
         <v>2</v>
       </c>
       <c r="DA22" s="76"/>
-      <c r="DB22" s="100">
+      <c r="DB22" s="80">
         <f t="shared" si="6"/>
         <v>46874</v>
       </c>
@@ -11969,11 +11906,11 @@
         <f t="shared" si="7"/>
         <v>46935</v>
       </c>
-      <c r="DD22" s="101">
+      <c r="DD22" s="81">
         <v>2</v>
       </c>
       <c r="DE22" s="77"/>
-      <c r="DF22" s="100">
+      <c r="DF22" s="80">
         <f t="shared" si="8"/>
         <v>46935</v>
       </c>
@@ -11981,11 +11918,11 @@
         <f t="shared" si="9"/>
         <v>47150</v>
       </c>
-      <c r="DH22" s="101">
+      <c r="DH22" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B23" s="29" t="s">
         <v>98</v>
       </c>
@@ -12196,7 +12133,7 @@
       <c r="CO23" s="28">
         <v>46388</v>
       </c>
-      <c r="CP23" s="102">
+      <c r="CP23" s="82">
         <f t="shared" si="0"/>
         <v>46204</v>
       </c>
@@ -12204,11 +12141,11 @@
         <f t="shared" si="1"/>
         <v>46266</v>
       </c>
-      <c r="CR23" s="103">
+      <c r="CR23" s="83">
         <v>2</v>
       </c>
       <c r="CS23" s="76"/>
-      <c r="CT23" s="102">
+      <c r="CT23" s="82">
         <f t="shared" si="2"/>
         <v>46266</v>
       </c>
@@ -12216,11 +12153,11 @@
         <f t="shared" si="3"/>
         <v>46327</v>
       </c>
-      <c r="CV23" s="103">
+      <c r="CV23" s="83">
         <v>2</v>
       </c>
       <c r="CW23" s="76"/>
-      <c r="CX23" s="102">
+      <c r="CX23" s="82">
         <f t="shared" si="4"/>
         <v>46327</v>
       </c>
@@ -12228,11 +12165,11 @@
         <f t="shared" si="5"/>
         <v>46388</v>
       </c>
-      <c r="CZ23" s="103">
+      <c r="CZ23" s="83">
         <v>2</v>
       </c>
       <c r="DA23" s="76"/>
-      <c r="DB23" s="102">
+      <c r="DB23" s="82">
         <f t="shared" si="6"/>
         <v>46388</v>
       </c>
@@ -12240,11 +12177,11 @@
         <f t="shared" si="7"/>
         <v>46447</v>
       </c>
-      <c r="DD23" s="103">
+      <c r="DD23" s="83">
         <v>2</v>
       </c>
       <c r="DE23" s="77"/>
-      <c r="DF23" s="102">
+      <c r="DF23" s="82">
         <f t="shared" si="8"/>
         <v>46447</v>
       </c>
@@ -12252,11 +12189,11 @@
         <f t="shared" si="9"/>
         <v>46661</v>
       </c>
-      <c r="DH23" s="103">
+      <c r="DH23" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>100</v>
       </c>
@@ -12467,7 +12404,7 @@
       <c r="CO24" s="28">
         <v>45901</v>
       </c>
-      <c r="CP24" s="100">
+      <c r="CP24" s="80">
         <f t="shared" si="0"/>
         <v>45717</v>
       </c>
@@ -12475,11 +12412,11 @@
         <f t="shared" si="1"/>
         <v>45778</v>
       </c>
-      <c r="CR24" s="101">
+      <c r="CR24" s="81">
         <v>2</v>
       </c>
       <c r="CS24" s="76"/>
-      <c r="CT24" s="100">
+      <c r="CT24" s="80">
         <f t="shared" si="2"/>
         <v>45778</v>
       </c>
@@ -12487,11 +12424,11 @@
         <f t="shared" si="3"/>
         <v>45839</v>
       </c>
-      <c r="CV24" s="101">
+      <c r="CV24" s="81">
         <v>2</v>
       </c>
       <c r="CW24" s="76"/>
-      <c r="CX24" s="100">
+      <c r="CX24" s="80">
         <f t="shared" si="4"/>
         <v>45839</v>
       </c>
@@ -12499,11 +12436,11 @@
         <f t="shared" si="5"/>
         <v>45901</v>
       </c>
-      <c r="CZ24" s="101">
+      <c r="CZ24" s="81">
         <v>2</v>
       </c>
       <c r="DA24" s="76"/>
-      <c r="DB24" s="100">
+      <c r="DB24" s="80">
         <f t="shared" si="6"/>
         <v>45901</v>
       </c>
@@ -12511,11 +12448,11 @@
         <f t="shared" si="7"/>
         <v>45962</v>
       </c>
-      <c r="DD24" s="101">
+      <c r="DD24" s="81">
         <v>2</v>
       </c>
       <c r="DE24" s="77"/>
-      <c r="DF24" s="100">
+      <c r="DF24" s="80">
         <f t="shared" si="8"/>
         <v>45962</v>
       </c>
@@ -12523,11 +12460,11 @@
         <f t="shared" si="9"/>
         <v>46174</v>
       </c>
-      <c r="DH24" s="101">
+      <c r="DH24" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B25" s="29" t="s">
         <v>100</v>
       </c>
@@ -12738,7 +12675,7 @@
       <c r="CO25" s="28">
         <v>46447</v>
       </c>
-      <c r="CP25" s="102">
+      <c r="CP25" s="82">
         <f t="shared" si="0"/>
         <v>46266</v>
       </c>
@@ -12746,11 +12683,11 @@
         <f t="shared" si="1"/>
         <v>46327</v>
       </c>
-      <c r="CR25" s="103">
+      <c r="CR25" s="83">
         <v>2</v>
       </c>
       <c r="CS25" s="76"/>
-      <c r="CT25" s="102">
+      <c r="CT25" s="82">
         <f t="shared" si="2"/>
         <v>46327</v>
       </c>
@@ -12758,11 +12695,11 @@
         <f t="shared" si="3"/>
         <v>46388</v>
       </c>
-      <c r="CV25" s="103">
+      <c r="CV25" s="83">
         <v>2</v>
       </c>
       <c r="CW25" s="76"/>
-      <c r="CX25" s="102">
+      <c r="CX25" s="82">
         <f t="shared" si="4"/>
         <v>46388</v>
       </c>
@@ -12770,11 +12707,11 @@
         <f t="shared" si="5"/>
         <v>46447</v>
       </c>
-      <c r="CZ25" s="103">
+      <c r="CZ25" s="83">
         <v>2</v>
       </c>
       <c r="DA25" s="76"/>
-      <c r="DB25" s="102">
+      <c r="DB25" s="82">
         <f t="shared" si="6"/>
         <v>46447</v>
       </c>
@@ -12782,11 +12719,11 @@
         <f t="shared" si="7"/>
         <v>46508</v>
       </c>
-      <c r="DD25" s="103">
+      <c r="DD25" s="83">
         <v>2</v>
       </c>
       <c r="DE25" s="77"/>
-      <c r="DF25" s="102">
+      <c r="DF25" s="82">
         <f t="shared" si="8"/>
         <v>46508</v>
       </c>
@@ -12794,11 +12731,11 @@
         <f t="shared" si="9"/>
         <v>46722</v>
       </c>
-      <c r="DH25" s="103">
+      <c r="DH25" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="s">
         <v>103</v>
       </c>
@@ -13009,7 +12946,7 @@
       <c r="CO26" s="28">
         <v>45901</v>
       </c>
-      <c r="CP26" s="100">
+      <c r="CP26" s="80">
         <f t="shared" si="0"/>
         <v>45717</v>
       </c>
@@ -13017,11 +12954,11 @@
         <f t="shared" si="1"/>
         <v>45778</v>
       </c>
-      <c r="CR26" s="101">
+      <c r="CR26" s="81">
         <v>2</v>
       </c>
       <c r="CS26" s="76"/>
-      <c r="CT26" s="100">
+      <c r="CT26" s="80">
         <f t="shared" si="2"/>
         <v>45778</v>
       </c>
@@ -13029,11 +12966,11 @@
         <f t="shared" si="3"/>
         <v>45839</v>
       </c>
-      <c r="CV26" s="101">
+      <c r="CV26" s="81">
         <v>2</v>
       </c>
       <c r="CW26" s="76"/>
-      <c r="CX26" s="100">
+      <c r="CX26" s="80">
         <f t="shared" si="4"/>
         <v>45839</v>
       </c>
@@ -13041,11 +12978,11 @@
         <f t="shared" si="5"/>
         <v>45901</v>
       </c>
-      <c r="CZ26" s="101">
+      <c r="CZ26" s="81">
         <v>2</v>
       </c>
       <c r="DA26" s="76"/>
-      <c r="DB26" s="100">
+      <c r="DB26" s="80">
         <f t="shared" si="6"/>
         <v>45901</v>
       </c>
@@ -13053,11 +12990,11 @@
         <f t="shared" si="7"/>
         <v>45962</v>
       </c>
-      <c r="DD26" s="101">
+      <c r="DD26" s="81">
         <v>2</v>
       </c>
       <c r="DE26" s="77"/>
-      <c r="DF26" s="100">
+      <c r="DF26" s="80">
         <f t="shared" si="8"/>
         <v>45962</v>
       </c>
@@ -13065,16 +13002,16 @@
         <f t="shared" si="9"/>
         <v>46174</v>
       </c>
-      <c r="DH26" s="101">
+      <c r="DH26" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B27" s="29" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>82</v>
@@ -13280,7 +13217,7 @@
       <c r="CO27" s="28">
         <v>46569</v>
       </c>
-      <c r="CP27" s="102">
+      <c r="CP27" s="82">
         <f t="shared" si="0"/>
         <v>46388</v>
       </c>
@@ -13288,11 +13225,11 @@
         <f t="shared" si="1"/>
         <v>46447</v>
       </c>
-      <c r="CR27" s="103">
+      <c r="CR27" s="83">
         <v>2</v>
       </c>
       <c r="CS27" s="76"/>
-      <c r="CT27" s="102">
+      <c r="CT27" s="82">
         <f t="shared" si="2"/>
         <v>46447</v>
       </c>
@@ -13300,11 +13237,11 @@
         <f t="shared" si="3"/>
         <v>46508</v>
       </c>
-      <c r="CV27" s="103">
+      <c r="CV27" s="83">
         <v>2</v>
       </c>
       <c r="CW27" s="76"/>
-      <c r="CX27" s="102">
+      <c r="CX27" s="82">
         <f t="shared" si="4"/>
         <v>46508</v>
       </c>
@@ -13312,11 +13249,11 @@
         <f t="shared" si="5"/>
         <v>46569</v>
       </c>
-      <c r="CZ27" s="103">
+      <c r="CZ27" s="83">
         <v>2</v>
       </c>
       <c r="DA27" s="76"/>
-      <c r="DB27" s="102">
+      <c r="DB27" s="82">
         <f t="shared" si="6"/>
         <v>46569</v>
       </c>
@@ -13324,11 +13261,11 @@
         <f t="shared" si="7"/>
         <v>46631</v>
       </c>
-      <c r="DD27" s="103">
+      <c r="DD27" s="83">
         <v>2</v>
       </c>
       <c r="DE27" s="77"/>
-      <c r="DF27" s="102">
+      <c r="DF27" s="82">
         <f t="shared" si="8"/>
         <v>46631</v>
       </c>
@@ -13336,16 +13273,16 @@
         <f t="shared" si="9"/>
         <v>46844</v>
       </c>
-      <c r="DH27" s="103">
+      <c r="DH27" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>82</v>
@@ -13551,7 +13488,7 @@
       <c r="CO28" s="28">
         <v>47150</v>
       </c>
-      <c r="CP28" s="100">
+      <c r="CP28" s="80">
         <f t="shared" si="0"/>
         <v>46966</v>
       </c>
@@ -13559,11 +13496,11 @@
         <f t="shared" si="1"/>
         <v>47027</v>
       </c>
-      <c r="CR28" s="101">
+      <c r="CR28" s="81">
         <v>2</v>
       </c>
       <c r="CS28" s="76"/>
-      <c r="CT28" s="100">
+      <c r="CT28" s="80">
         <f t="shared" si="2"/>
         <v>47027</v>
       </c>
@@ -13571,11 +13508,11 @@
         <f t="shared" si="3"/>
         <v>47088</v>
       </c>
-      <c r="CV28" s="101">
+      <c r="CV28" s="81">
         <v>2</v>
       </c>
       <c r="CW28" s="76"/>
-      <c r="CX28" s="100">
+      <c r="CX28" s="80">
         <f t="shared" si="4"/>
         <v>47088</v>
       </c>
@@ -13583,11 +13520,11 @@
         <f t="shared" si="5"/>
         <v>47150</v>
       </c>
-      <c r="CZ28" s="101">
+      <c r="CZ28" s="81">
         <v>2</v>
       </c>
       <c r="DA28" s="76"/>
-      <c r="DB28" s="100">
+      <c r="DB28" s="80">
         <f t="shared" si="6"/>
         <v>47150</v>
       </c>
@@ -13595,11 +13532,11 @@
         <f t="shared" si="7"/>
         <v>47209</v>
       </c>
-      <c r="DD28" s="101">
+      <c r="DD28" s="81">
         <v>2</v>
       </c>
       <c r="DE28" s="77"/>
-      <c r="DF28" s="100">
+      <c r="DF28" s="80">
         <f t="shared" si="8"/>
         <v>47209</v>
       </c>
@@ -13607,16 +13544,16 @@
         <f t="shared" si="9"/>
         <v>47423</v>
       </c>
-      <c r="DH28" s="101">
+      <c r="DH28" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:112" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:112" x14ac:dyDescent="0.35">
       <c r="B29" s="29" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>82</v>
@@ -13822,7 +13759,7 @@
       <c r="CO29" s="28">
         <v>47696</v>
       </c>
-      <c r="CP29" s="102">
+      <c r="CP29" s="82">
         <f t="shared" si="0"/>
         <v>47515</v>
       </c>
@@ -13830,11 +13767,11 @@
         <f t="shared" si="1"/>
         <v>47574</v>
       </c>
-      <c r="CR29" s="103">
+      <c r="CR29" s="83">
         <v>2</v>
       </c>
       <c r="CS29" s="76"/>
-      <c r="CT29" s="102">
+      <c r="CT29" s="82">
         <f t="shared" si="2"/>
         <v>47574</v>
       </c>
@@ -13842,11 +13779,11 @@
         <f t="shared" si="3"/>
         <v>47635</v>
       </c>
-      <c r="CV29" s="103">
+      <c r="CV29" s="83">
         <v>2</v>
       </c>
       <c r="CW29" s="76"/>
-      <c r="CX29" s="102">
+      <c r="CX29" s="82">
         <f t="shared" si="4"/>
         <v>47635</v>
       </c>
@@ -13854,11 +13791,11 @@
         <f t="shared" si="5"/>
         <v>47696</v>
       </c>
-      <c r="CZ29" s="103">
+      <c r="CZ29" s="83">
         <v>2</v>
       </c>
       <c r="DA29" s="76"/>
-      <c r="DB29" s="102">
+      <c r="DB29" s="82">
         <f t="shared" si="6"/>
         <v>47696</v>
       </c>
@@ -13866,11 +13803,11 @@
         <f t="shared" si="7"/>
         <v>47757</v>
       </c>
-      <c r="DD29" s="103">
+      <c r="DD29" s="83">
         <v>2</v>
       </c>
       <c r="DE29" s="77"/>
-      <c r="DF29" s="102">
+      <c r="DF29" s="82">
         <f t="shared" si="8"/>
         <v>47757</v>
       </c>
@@ -13878,16 +13815,16 @@
         <f t="shared" si="9"/>
         <v>47969</v>
       </c>
-      <c r="DH29" s="103">
+      <c r="DH29" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:112" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:112" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>82</v>
@@ -14095,79 +14032,76 @@
       <c r="CO30" s="53">
         <v>46388</v>
       </c>
-      <c r="CP30" s="104">
+      <c r="CP30" s="84">
         <f t="shared" si="0"/>
         <v>46204</v>
       </c>
-      <c r="CQ30" s="105">
+      <c r="CQ30" s="85">
         <f t="shared" si="1"/>
         <v>46266</v>
       </c>
-      <c r="CR30" s="106">
+      <c r="CR30" s="86">
         <v>2</v>
       </c>
-      <c r="CS30" s="107"/>
-      <c r="CT30" s="104">
+      <c r="CS30" s="87"/>
+      <c r="CT30" s="84">
         <f t="shared" si="2"/>
         <v>46266</v>
       </c>
-      <c r="CU30" s="105">
+      <c r="CU30" s="85">
         <f t="shared" si="3"/>
         <v>46327</v>
       </c>
-      <c r="CV30" s="106">
+      <c r="CV30" s="86">
         <v>2</v>
       </c>
-      <c r="CW30" s="107"/>
-      <c r="CX30" s="104">
+      <c r="CW30" s="87"/>
+      <c r="CX30" s="84">
         <f t="shared" si="4"/>
         <v>46327</v>
       </c>
-      <c r="CY30" s="105">
+      <c r="CY30" s="85">
         <f t="shared" si="5"/>
         <v>46388</v>
       </c>
-      <c r="CZ30" s="106">
+      <c r="CZ30" s="86">
         <v>2</v>
       </c>
-      <c r="DA30" s="107"/>
-      <c r="DB30" s="104">
+      <c r="DA30" s="87"/>
+      <c r="DB30" s="84">
         <f t="shared" si="6"/>
         <v>46388</v>
       </c>
-      <c r="DC30" s="105">
+      <c r="DC30" s="85">
         <f t="shared" si="7"/>
         <v>46447</v>
       </c>
-      <c r="DD30" s="106">
+      <c r="DD30" s="86">
         <v>2</v>
       </c>
-      <c r="DE30" s="108"/>
-      <c r="DF30" s="104">
+      <c r="DE30" s="88"/>
+      <c r="DF30" s="84">
         <f t="shared" si="8"/>
         <v>46447</v>
       </c>
-      <c r="DG30" s="105">
+      <c r="DG30" s="85">
         <f t="shared" si="9"/>
         <v>46661</v>
       </c>
-      <c r="DH30" s="106">
+      <c r="DH30" s="86">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="CP2:DH2"/>
-    <mergeCell ref="CP3:CR3"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:Q2"/>
-    <mergeCell ref="S2:AG2"/>
-    <mergeCell ref="AI2:AX2"/>
-    <mergeCell ref="AZ2:BN2"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="CJ3:CL3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="CF3:CH3"/>
     <mergeCell ref="BX2:BZ2"/>
     <mergeCell ref="CF2:CN2"/>
     <mergeCell ref="F3:H3"/>
@@ -14184,87 +14118,85 @@
     <mergeCell ref="AV3:AX3"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="CJ3:CL3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="S2:AG2"/>
+    <mergeCell ref="AI2:AX2"/>
+    <mergeCell ref="AZ2:BN2"/>
+    <mergeCell ref="CP2:DH2"/>
+    <mergeCell ref="CP3:CR3"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DF3:DH3"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J30">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="25" operator="lessThan">
       <formula>$Q$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:T30 W8:X30">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AB30">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AF30 AQ8:AR30 AV8:AW30 BH8:BI30 BL8:BM30 BP8:BQ30 BT8:BU30 BX8:BY30">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AJ30">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="21" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AN30">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:BA30">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD8:BE30">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB8:CC30">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF8:CG30">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ8:CK30">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DB8:DC30 DE8:DF30 CX8:CY30 CT8:CU30">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="CP8:CQ30">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DG8:DG30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="CT8:CU30 CX8:CY30 DB8:DC30">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ8:CQ30">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CP8:CP30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="DE8:DG30">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14281,27 +14213,27 @@
       <selection activeCell="E26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.6640625" customWidth="1"/>
-    <col min="18" max="18" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.6328125" customWidth="1"/>
+    <col min="18" max="18" width="28.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:24" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="8.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:24" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
@@ -14331,16 +14263,16 @@
         <v>44742</v>
       </c>
       <c r="V3" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W3" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X3" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" s="56" t="s">
         <v>7</v>
       </c>
@@ -14358,7 +14290,7 @@
         <v>7</v>
       </c>
       <c r="P4" s="66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S4" s="67">
         <v>0</v>
@@ -14370,16 +14302,16 @@
         <v>45653</v>
       </c>
       <c r="V4" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W4" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X4" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" s="57" t="s">
         <v>8</v>
       </c>
@@ -14390,7 +14322,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
@@ -14399,7 +14331,7 @@
         <v>8</v>
       </c>
       <c r="P5" s="66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S5" s="67">
         <v>0</v>
@@ -14411,16 +14343,16 @@
         <v>45838</v>
       </c>
       <c r="V5" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W5" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X5" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B6" s="57" t="s">
         <v>9</v>
       </c>
@@ -14438,7 +14370,7 @@
         <v>9</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S6" s="67">
         <v>0</v>
@@ -14450,16 +14382,16 @@
         <v>45040</v>
       </c>
       <c r="V6" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W6" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X6" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7" s="57" t="s">
         <v>10</v>
       </c>
@@ -14477,7 +14409,7 @@
         <v>10</v>
       </c>
       <c r="P7" s="66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S7" s="67">
         <v>0</v>
@@ -14489,16 +14421,16 @@
         <v>45125</v>
       </c>
       <c r="V7" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W7" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X7" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8" s="57" t="s">
         <v>11</v>
       </c>
@@ -14516,7 +14448,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="66" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S8" s="67">
         <v>0</v>
@@ -14528,16 +14460,16 @@
         <v>45210</v>
       </c>
       <c r="V8" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W8" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X8" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9" s="57" t="s">
         <v>12</v>
       </c>
@@ -14555,7 +14487,7 @@
         <v>12</v>
       </c>
       <c r="P9" s="66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S9" s="67">
         <v>0</v>
@@ -14567,16 +14499,16 @@
         <v>45280</v>
       </c>
       <c r="V9" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W9" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X9" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10" s="57" t="s">
         <v>13</v>
       </c>
@@ -14594,7 +14526,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S10" s="67">
         <v>0</v>
@@ -14606,16 +14538,16 @@
         <v>45139</v>
       </c>
       <c r="V10" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W10" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X10" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="57" t="s">
         <v>14</v>
       </c>
@@ -14633,7 +14565,7 @@
         <v>14</v>
       </c>
       <c r="P11" s="66" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="S11" s="67">
         <v>0</v>
@@ -14645,16 +14577,16 @@
         <v>45224</v>
       </c>
       <c r="V11" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W11" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X11" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12" s="57" t="s">
         <v>15</v>
       </c>
@@ -14681,16 +14613,16 @@
         <v>45638</v>
       </c>
       <c r="V12" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W12" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X12" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13" s="57" t="s">
         <v>16</v>
       </c>
@@ -14708,7 +14640,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="S13" s="67">
         <v>0</v>
@@ -14720,16 +14652,16 @@
         <v>45182</v>
       </c>
       <c r="V13" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W13" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X13" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B14" s="57" t="s">
         <v>17</v>
       </c>
@@ -14747,7 +14679,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="66" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S14" s="67">
         <v>0</v>
@@ -14759,16 +14691,16 @@
         <v>45400</v>
       </c>
       <c r="V14" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W14" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X14" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B15" s="57" t="s">
         <v>18</v>
       </c>
@@ -14786,7 +14718,7 @@
         <v>18</v>
       </c>
       <c r="P15" s="66" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="S15" s="67">
         <v>0</v>
@@ -14798,16 +14730,16 @@
         <v>45484</v>
       </c>
       <c r="V15" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W15" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X15" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B16" s="57" t="s">
         <v>19</v>
       </c>
@@ -14825,7 +14757,7 @@
         <v>19</v>
       </c>
       <c r="P16" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S16" s="67">
         <v>0</v>
@@ -14837,16 +14769,16 @@
         <v>45638</v>
       </c>
       <c r="V16" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W16" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X16" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B17" s="57" t="s">
         <v>20</v>
       </c>
@@ -14864,7 +14796,7 @@
         <v>20</v>
       </c>
       <c r="P17" s="66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S17" s="67">
         <v>0</v>
@@ -14876,16 +14808,16 @@
         <v>45546</v>
       </c>
       <c r="V17" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W17" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X17" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B18" s="57" t="s">
         <v>21</v>
       </c>
@@ -14903,7 +14835,7 @@
         <v>21</v>
       </c>
       <c r="P18" s="66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S18" s="67">
         <v>0</v>
@@ -14915,16 +14847,16 @@
         <v>45638</v>
       </c>
       <c r="V18" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W18" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X18" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B19" s="57" t="s">
         <v>22</v>
       </c>
@@ -14942,7 +14874,7 @@
         <v>22</v>
       </c>
       <c r="P19" s="66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S19" s="67">
         <v>0</v>
@@ -14954,16 +14886,16 @@
         <v>45821</v>
       </c>
       <c r="V19" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W19" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X19" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B20" s="57" t="s">
         <v>23</v>
       </c>
@@ -14981,7 +14913,7 @@
         <v>23</v>
       </c>
       <c r="P20" s="66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S20" s="67">
         <v>0</v>
@@ -14993,16 +14925,16 @@
         <v>45103</v>
       </c>
       <c r="V20" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W20" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X20" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B21" s="57" t="s">
         <v>24</v>
       </c>
@@ -15020,7 +14952,7 @@
         <v>24</v>
       </c>
       <c r="P21" s="66" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S21" s="67">
         <v>0</v>
@@ -15032,16 +14964,16 @@
         <v>45653</v>
       </c>
       <c r="V21" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W21" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X21" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B22" s="57" t="s">
         <v>25</v>
       </c>
@@ -15059,7 +14991,7 @@
         <v>25</v>
       </c>
       <c r="P22" s="66" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S22" s="67">
         <v>0</v>
@@ -15071,16 +15003,16 @@
         <v>45838</v>
       </c>
       <c r="V22" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W22" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X22" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B23" s="57" t="s">
         <v>26</v>
       </c>
@@ -15096,7 +15028,7 @@
         <v>26</v>
       </c>
       <c r="P23" s="66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S23" s="67">
         <v>0</v>
@@ -15105,19 +15037,19 @@
         <v>45823</v>
       </c>
       <c r="U23" s="66" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="V23" s="70" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W23" s="70" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X23" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B24" s="57" t="s">
         <v>5</v>
       </c>
@@ -15131,7 +15063,7 @@
         <v>5</v>
       </c>
       <c r="P24" s="66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S24" s="65"/>
       <c r="T24" s="65"/>
@@ -15140,7 +15072,7 @@
       <c r="W24" s="65"/>
       <c r="X24" s="65"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B25" s="57" t="s">
         <v>27</v>
       </c>
@@ -15154,7 +15086,7 @@
         <v>27</v>
       </c>
       <c r="P25" s="66" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
